--- a/房管服务中心字段.xlsx
+++ b/房管服务中心字段.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="装修部" sheetId="1" r:id="rId1"/>
+    <sheet name="维修部" sheetId="2" r:id="rId2"/>
+    <sheet name="保洁部" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
@@ -68,8 +68,138 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>后期系统上线可以查询</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>后期添加</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不精准</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="206">
   <si>
     <t>序号</t>
     <rPh sb="0" eb="1">
@@ -588,13 +718,670 @@
       <t>lei'xing</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <rPh sb="0" eb="1">
+      <t>bao'biao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修</t>
+    <rPh sb="0" eb="1">
+      <t>wei'xiu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A组</t>
+    <rPh sb="1" eb="2">
+      <t>zu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大区</t>
+    <rPh sb="0" eb="1">
+      <t>da'qu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店</t>
+    <rPh sb="0" eb="1">
+      <t>men'd</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店</t>
+    <rPh sb="0" eb="1">
+      <t>men'dian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋类型</t>
+    <rPh sb="0" eb="1">
+      <t>fang'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修申请订单数量</t>
+    <rPh sb="0" eb="1">
+      <t>wei'xiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shen'qing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ding'd'na</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单数目</t>
+    <rPh sb="0" eb="1">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'mu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成订单数量</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单数量</t>
+    <rPh sb="0" eb="1">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修数量</t>
+    <rPh sb="0" eb="1">
+      <t>wei'xiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换数量</t>
+    <rPh sb="0" eb="1">
+      <t>geng'huan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>满意度</t>
+    <rPh sb="0" eb="1">
+      <t>man'yi'du</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋套数</t>
+    <rPh sb="0" eb="1">
+      <t>fang'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tao'shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋套数</t>
+    <rPh sb="0" eb="1">
+      <t>fang'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tao'shu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修占比</t>
+    <rPh sb="0" eb="1">
+      <t>wei'xiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhan'bi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修成本</t>
+    <rPh sb="0" eb="1">
+      <t>wei'xiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chegn'ben</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客承担订单数量</t>
+    <rPh sb="0" eb="1">
+      <t>zu'ke</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'dna</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客承担成本</t>
+    <rPh sb="0" eb="1">
+      <t>zu'ke</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chegn'dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chegn'ben</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>承担成本</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司承担订单数量</t>
+    <rPh sb="0" eb="1">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dign'd</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司承担成本</t>
+    <rPh sb="0" eb="1">
+      <t>gong's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司承担成本</t>
+    <rPh sb="0" eb="1">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chegn'dna</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收合格率</t>
+    <rPh sb="0" eb="1">
+      <t>yan'shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he'ge'lv</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称</t>
+    <rPh sb="0" eb="1">
+      <t>gong'ying'shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming'cheng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称</t>
+    <rPh sb="0" eb="1">
+      <t>gong'ying'shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming'chegn</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>supp_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷绪辉</t>
+    <rPh sb="0" eb="1">
+      <t>yin'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui'huang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务类别</t>
+    <rPh sb="0" eb="1">
+      <t>fu'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'bie</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务类别</t>
+    <rPh sb="0" eb="1">
+      <t>fu'wu'w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'bie</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varcahr(32)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单数量</t>
+    <rPh sb="0" eb="1">
+      <t>ding'd'na</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数</t>
+    <rPh sb="0" eb="1">
+      <t>zong'shu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务区域</t>
+    <rPh sb="0" eb="1">
+      <t>fu'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu'yu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务账单金额</t>
+    <rPh sb="0" eb="1">
+      <t>fu'w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang'dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin'e</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <rPh sb="0" eb="1">
+      <t>jin'e</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill_amount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> decimal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>satis_state</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉数量</t>
+    <rPh sb="0" eb="1">
+      <t>tou'su</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="1">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应扣减金额</t>
+    <rPh sb="0" eb="1">
+      <t>ying</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kou'jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jin'e</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deduct_amount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付金额</t>
+    <rPh sb="0" eb="1">
+      <t>ying'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'e</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_amount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注字段</t>
+    <rPh sb="0" eb="1">
+      <t>bei'zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'duan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(128)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店属性</t>
+    <rPh sb="0" eb="1">
+      <t>men'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'xing</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店类型</t>
+    <rPh sb="0" eb="1">
+      <t>men'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修面积</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang'xu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mian'ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积</t>
+    <rPh sb="0" eb="1">
+      <t>mian'ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deco_area</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修成本</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang'xiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deco_cost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修订单</t>
+    <rPh sb="0" eb="1">
+      <t>wei'xiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'd'na</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <rPh sb="0" eb="1">
+      <t>ding'dan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修成本</t>
+    <rPh sb="0" eb="1">
+      <t>wei'xiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_cost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <rPh sb="0" eb="1">
+      <t>he'ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店装修、维修</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁报表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁总订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开荒保洁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通保洁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度保洁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退房保洁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成订单量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋总套数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁订单
+占比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收合格率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,6 +1440,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -662,7 +1464,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -906,11 +1708,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -948,19 +1774,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -972,13 +1798,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1282,21 +2127,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="8" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1336,7 +2182,7 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="21" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1353,12 +2199,14 @@
       <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="27">
+        <v>43333</v>
+      </c>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
-      <c r="B3" s="15"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1373,12 +2221,14 @@
       <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="27">
+        <v>43333</v>
+      </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
-      <c r="B4" s="15"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1393,12 +2243,14 @@
       <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="27">
+        <v>43333</v>
+      </c>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1413,12 +2265,14 @@
       <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="27">
+        <v>43333</v>
+      </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1433,12 +2287,14 @@
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="27">
+        <v>43333</v>
+      </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
-      <c r="B7" s="15"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1453,12 +2309,14 @@
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="27">
+        <v>43333</v>
+      </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
-      <c r="B8" s="15"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1473,12 +2331,14 @@
       <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="27">
+        <v>43333</v>
+      </c>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
-      <c r="B9" s="15"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1493,12 +2353,14 @@
       <c r="H9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="27">
+        <v>43333</v>
+      </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
@@ -1513,12 +2375,14 @@
       <c r="H10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="27">
+        <v>43333</v>
+      </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
@@ -1533,12 +2397,14 @@
       <c r="H11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="27">
+        <v>43333</v>
+      </c>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1553,12 +2419,14 @@
       <c r="H12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="27">
+        <v>43333</v>
+      </c>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
@@ -1573,12 +2441,14 @@
       <c r="H13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="27">
+        <v>43333</v>
+      </c>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="15"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1593,12 +2463,14 @@
       <c r="H14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="27">
+        <v>43333</v>
+      </c>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="15"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1613,12 +2485,14 @@
       <c r="H15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="27">
+        <v>43333</v>
+      </c>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="15"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
@@ -1633,12 +2507,14 @@
       <c r="H16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="27">
+        <v>43333</v>
+      </c>
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="15"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1653,12 +2529,14 @@
       <c r="H17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="27">
+        <v>43333</v>
+      </c>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
@@ -1673,12 +2551,14 @@
       <c r="H18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="27">
+        <v>43333</v>
+      </c>
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
@@ -1693,12 +2573,14 @@
       <c r="H19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="27">
+        <v>43333</v>
+      </c>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
@@ -1713,12 +2595,14 @@
       <c r="H20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="27">
+        <v>43333</v>
+      </c>
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
@@ -1733,12 +2617,14 @@
       <c r="H21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="27">
+        <v>43333</v>
+      </c>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
@@ -1753,12 +2639,14 @@
       <c r="H22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="27">
+        <v>43333</v>
+      </c>
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="15"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="4" t="s">
         <v>52</v>
       </c>
@@ -1773,12 +2661,14 @@
       <c r="H23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="27">
+        <v>43333</v>
+      </c>
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="4" t="s">
         <v>54</v>
       </c>
@@ -1793,14 +2683,16 @@
       <c r="H24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="10"/>
+      <c r="I24" s="27">
+        <v>43333</v>
+      </c>
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A25" s="12">
         <v>2</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1815,12 +2707,14 @@
       <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="4"/>
+      <c r="I25" s="27">
+        <v>43333</v>
+      </c>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="4" t="s">
         <v>58</v>
       </c>
@@ -1835,12 +2729,14 @@
       <c r="H26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="4"/>
+      <c r="I26" s="27">
+        <v>43333</v>
+      </c>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="4" t="s">
         <v>60</v>
       </c>
@@ -1853,12 +2749,14 @@
       <c r="H27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="I27" s="27">
+        <v>43333</v>
+      </c>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="4" t="s">
         <v>46</v>
       </c>
@@ -1871,12 +2769,14 @@
       <c r="H28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="4"/>
+      <c r="I28" s="27">
+        <v>43333</v>
+      </c>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="4" t="s">
         <v>61</v>
       </c>
@@ -1889,12 +2789,14 @@
       <c r="H29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="27">
+        <v>43333</v>
+      </c>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="4" t="s">
         <v>28</v>
       </c>
@@ -1907,12 +2809,14 @@
       <c r="H30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="4"/>
+      <c r="I30" s="27">
+        <v>43333</v>
+      </c>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="4" t="s">
         <v>62</v>
       </c>
@@ -1925,12 +2829,14 @@
       <c r="H31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="4"/>
+      <c r="I31" s="27">
+        <v>43333</v>
+      </c>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="4" t="s">
         <v>63</v>
       </c>
@@ -1943,12 +2849,14 @@
       <c r="H32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="4"/>
+      <c r="I32" s="27">
+        <v>43333</v>
+      </c>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="4" t="s">
         <v>64</v>
       </c>
@@ -1961,12 +2869,14 @@
       <c r="H33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="7"/>
+      <c r="I33" s="27">
+        <v>43333</v>
+      </c>
       <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="4" t="s">
         <v>65</v>
       </c>
@@ -1979,12 +2889,14 @@
       <c r="H34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="7"/>
+      <c r="I34" s="27">
+        <v>43333</v>
+      </c>
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="4" t="s">
         <v>66</v>
       </c>
@@ -1997,12 +2909,14 @@
       <c r="H35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="7"/>
+      <c r="I35" s="27">
+        <v>43333</v>
+      </c>
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="4" t="s">
         <v>67</v>
       </c>
@@ -2015,12 +2929,14 @@
       <c r="H36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="7"/>
+      <c r="I36" s="27">
+        <v>43333</v>
+      </c>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="4" t="s">
         <v>68</v>
       </c>
@@ -2033,12 +2949,14 @@
       <c r="H37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="7"/>
+      <c r="I37" s="27">
+        <v>43333</v>
+      </c>
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="4" t="s">
         <v>69</v>
       </c>
@@ -2051,12 +2969,14 @@
       <c r="H38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="7"/>
+      <c r="I38" s="27">
+        <v>43333</v>
+      </c>
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="4" t="s">
         <v>70</v>
       </c>
@@ -2069,12 +2989,14 @@
       <c r="H39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="7"/>
+      <c r="I39" s="27">
+        <v>43333</v>
+      </c>
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
@@ -2087,12 +3009,14 @@
       <c r="H40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="7"/>
+      <c r="I40" s="27">
+        <v>43333</v>
+      </c>
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="4" t="s">
         <v>72</v>
       </c>
@@ -2105,12 +3029,14 @@
       <c r="H41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="7"/>
+      <c r="I41" s="27">
+        <v>43333</v>
+      </c>
       <c r="J41" s="8"/>
     </row>
     <row r="42" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="4" t="s">
         <v>73</v>
       </c>
@@ -2123,12 +3049,14 @@
       <c r="H42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="7"/>
+      <c r="I42" s="27">
+        <v>43333</v>
+      </c>
       <c r="J42" s="8"/>
     </row>
     <row r="43" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="4" t="s">
         <v>74</v>
       </c>
@@ -2141,12 +3069,14 @@
       <c r="H43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="7"/>
+      <c r="I43" s="27">
+        <v>43333</v>
+      </c>
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="4" t="s">
         <v>75</v>
       </c>
@@ -2159,12 +3089,14 @@
       <c r="H44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="7"/>
+      <c r="I44" s="27">
+        <v>43333</v>
+      </c>
       <c r="J44" s="8"/>
     </row>
     <row r="45" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="4" t="s">
         <v>76</v>
       </c>
@@ -2177,12 +3109,14 @@
       <c r="H45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="7"/>
+      <c r="I45" s="27">
+        <v>43333</v>
+      </c>
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="4" t="s">
         <v>77</v>
       </c>
@@ -2195,12 +3129,14 @@
       <c r="H46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="7"/>
+      <c r="I46" s="27">
+        <v>43333</v>
+      </c>
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="4" t="s">
         <v>78</v>
       </c>
@@ -2213,12 +3149,14 @@
       <c r="H47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="7"/>
+      <c r="I47" s="27">
+        <v>43333</v>
+      </c>
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="4" t="s">
         <v>79</v>
       </c>
@@ -2231,12 +3169,14 @@
       <c r="H48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="7"/>
+      <c r="I48" s="27">
+        <v>43333</v>
+      </c>
       <c r="J48" s="8"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="4" t="s">
         <v>80</v>
       </c>
@@ -2249,12 +3189,14 @@
       <c r="H49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="7"/>
+      <c r="I49" s="27">
+        <v>43333</v>
+      </c>
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="4" t="s">
         <v>81</v>
       </c>
@@ -2267,12 +3209,14 @@
       <c r="H50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="7"/>
+      <c r="I50" s="27">
+        <v>43333</v>
+      </c>
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="4" t="s">
         <v>82</v>
       </c>
@@ -2285,12 +3229,14 @@
       <c r="H51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="7"/>
+      <c r="I51" s="27">
+        <v>43333</v>
+      </c>
       <c r="J51" s="8"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="4" t="s">
         <v>83</v>
       </c>
@@ -2303,12 +3249,14 @@
       <c r="H52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="7"/>
+      <c r="I52" s="27">
+        <v>43333</v>
+      </c>
       <c r="J52" s="8"/>
     </row>
     <row r="53" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A53" s="14"/>
-      <c r="B53" s="15"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="4" t="s">
         <v>84</v>
       </c>
@@ -2321,12 +3269,14 @@
       <c r="H53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I53" s="7"/>
+      <c r="I53" s="27">
+        <v>43333</v>
+      </c>
       <c r="J53" s="8"/>
     </row>
     <row r="54" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="14"/>
-      <c r="B54" s="15"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="4" t="s">
         <v>85</v>
       </c>
@@ -2339,12 +3289,14 @@
       <c r="H54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="7"/>
+      <c r="I54" s="27">
+        <v>43333</v>
+      </c>
       <c r="J54" s="8"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="4" t="s">
         <v>86</v>
       </c>
@@ -2357,12 +3309,14 @@
       <c r="H55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="7"/>
+      <c r="I55" s="27">
+        <v>43333</v>
+      </c>
       <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="14"/>
-      <c r="B56" s="15"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="4" t="s">
         <v>87</v>
       </c>
@@ -2375,12 +3329,14 @@
       <c r="H56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="7"/>
+      <c r="I56" s="27">
+        <v>43333</v>
+      </c>
       <c r="J56" s="8"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="14"/>
-      <c r="B57" s="15"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="4" t="s">
         <v>88</v>
       </c>
@@ -2393,12 +3349,14 @@
       <c r="H57" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="7"/>
+      <c r="I57" s="27">
+        <v>43333</v>
+      </c>
       <c r="J57" s="8"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="14"/>
-      <c r="B58" s="15"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="4" t="s">
         <v>89</v>
       </c>
@@ -2411,12 +3369,14 @@
       <c r="H58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="7"/>
+      <c r="I58" s="27">
+        <v>43333</v>
+      </c>
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="14"/>
-      <c r="B59" s="15"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="4" t="s">
         <v>90</v>
       </c>
@@ -2429,12 +3389,14 @@
       <c r="H59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="7"/>
+      <c r="I59" s="27">
+        <v>43333</v>
+      </c>
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="14"/>
-      <c r="B60" s="15"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
@@ -2447,12 +3409,14 @@
       <c r="H60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="7"/>
+      <c r="I60" s="27">
+        <v>43333</v>
+      </c>
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="14"/>
-      <c r="B61" s="15"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="4" t="s">
         <v>92</v>
       </c>
@@ -2465,12 +3429,14 @@
       <c r="H61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="7"/>
+      <c r="I61" s="27">
+        <v>43333</v>
+      </c>
       <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A62" s="14"/>
-      <c r="B62" s="15"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="4" t="s">
         <v>93</v>
       </c>
@@ -2483,12 +3449,14 @@
       <c r="H62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="7"/>
+      <c r="I62" s="27">
+        <v>43333</v>
+      </c>
       <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="14"/>
-      <c r="B63" s="15"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="4" t="s">
         <v>94</v>
       </c>
@@ -2501,12 +3469,14 @@
       <c r="H63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="7"/>
+      <c r="I63" s="27">
+        <v>43333</v>
+      </c>
       <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A64" s="14"/>
-      <c r="B64" s="15"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="4" t="s">
         <v>95</v>
       </c>
@@ -2519,12 +3489,14 @@
       <c r="H64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I64" s="7"/>
+      <c r="I64" s="27">
+        <v>43333</v>
+      </c>
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A65" s="14"/>
-      <c r="B65" s="15"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="4" t="s">
         <v>96</v>
       </c>
@@ -2537,12 +3509,14 @@
       <c r="H65" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="7"/>
+      <c r="I65" s="27">
+        <v>43333</v>
+      </c>
       <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
-      <c r="B66" s="17"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="10" t="s">
         <v>97</v>
       </c>
@@ -2555,14 +3529,16 @@
       <c r="H66" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="10"/>
+      <c r="I66" s="27">
+        <v>43333</v>
+      </c>
       <c r="J66" s="11"/>
     </row>
     <row r="67" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <v>3</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -2577,12 +3553,14 @@
       <c r="H67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I67" s="4"/>
+      <c r="I67" s="27">
+        <v>43333</v>
+      </c>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="16"/>
       <c r="C68" s="7" t="s">
         <v>101</v>
       </c>
@@ -2595,12 +3573,14 @@
       <c r="H68" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I68" s="4"/>
+      <c r="I68" s="27">
+        <v>43333</v>
+      </c>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="22"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="7" t="s">
         <v>103</v>
       </c>
@@ -2613,12 +3593,14 @@
       <c r="H69" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I69" s="4"/>
+      <c r="I69" s="27">
+        <v>43333</v>
+      </c>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="22"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="7" t="s">
         <v>104</v>
       </c>
@@ -2631,12 +3613,14 @@
       <c r="H70" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I70" s="4"/>
+      <c r="I70" s="27">
+        <v>43333</v>
+      </c>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="22"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="7" t="s">
         <v>105</v>
       </c>
@@ -2649,12 +3633,14 @@
       <c r="H71" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I71" s="4"/>
+      <c r="I71" s="27">
+        <v>43333</v>
+      </c>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="22"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="7" t="s">
         <v>106</v>
       </c>
@@ -2667,12 +3653,14 @@
       <c r="H72" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I72" s="4"/>
+      <c r="I72" s="27">
+        <v>43333</v>
+      </c>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="22"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="7" t="s">
         <v>107</v>
       </c>
@@ -2685,12 +3673,14 @@
       <c r="H73" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="4"/>
+      <c r="I73" s="27">
+        <v>43333</v>
+      </c>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
-      <c r="B74" s="22"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="7" t="s">
         <v>108</v>
       </c>
@@ -2703,12 +3693,14 @@
       <c r="H74" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I74" s="4"/>
+      <c r="I74" s="27">
+        <v>43333</v>
+      </c>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="14"/>
-      <c r="B75" s="22"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="7" t="s">
         <v>109</v>
       </c>
@@ -2721,12 +3713,14 @@
       <c r="H75" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I75" s="7"/>
+      <c r="I75" s="27">
+        <v>43333</v>
+      </c>
       <c r="J75" s="8"/>
     </row>
     <row r="76" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="22"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="7" t="s">
         <v>110</v>
       </c>
@@ -2739,12 +3733,14 @@
       <c r="H76" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I76" s="7"/>
+      <c r="I76" s="27">
+        <v>43333</v>
+      </c>
       <c r="J76" s="8"/>
     </row>
     <row r="77" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="22"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="7" t="s">
         <v>111</v>
       </c>
@@ -2757,12 +3753,14 @@
       <c r="H77" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I77" s="7"/>
+      <c r="I77" s="27">
+        <v>43333</v>
+      </c>
       <c r="J77" s="8"/>
     </row>
     <row r="78" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="22"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="7" t="s">
         <v>112</v>
       </c>
@@ -2775,12 +3773,14 @@
       <c r="H78" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I78" s="7"/>
+      <c r="I78" s="27">
+        <v>43333</v>
+      </c>
       <c r="J78" s="8"/>
     </row>
     <row r="79" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="22"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="7" t="s">
         <v>113</v>
       </c>
@@ -2793,12 +3793,14 @@
       <c r="H79" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I79" s="7"/>
+      <c r="I79" s="27">
+        <v>43333</v>
+      </c>
       <c r="J79" s="8"/>
     </row>
     <row r="80" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="16"/>
-      <c r="B80" s="23"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
       <c r="C80" s="10" t="s">
         <v>114</v>
       </c>
@@ -2811,11 +3813,227 @@
       <c r="H80" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="I80" s="10"/>
+      <c r="I80" s="27">
+        <v>43333</v>
+      </c>
       <c r="J80" s="10"/>
     </row>
+    <row r="81" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="24">
+        <v>4</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H81" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I81" s="27">
+        <v>43333</v>
+      </c>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="24"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I82" s="27">
+        <v>43333</v>
+      </c>
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="24"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I83" s="27">
+        <v>43333</v>
+      </c>
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="24"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I84" s="27">
+        <v>43333</v>
+      </c>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="24"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H85" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I85" s="27">
+        <v>43333</v>
+      </c>
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="24"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H86" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I86" s="27">
+        <v>43333</v>
+      </c>
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="24"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H87" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I87" s="27">
+        <v>43333</v>
+      </c>
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="24"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H88" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I88" s="27">
+        <v>43333</v>
+      </c>
+      <c r="J88" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="B81:B88"/>
     <mergeCell ref="A67:A80"/>
     <mergeCell ref="B67:B80"/>
     <mergeCell ref="A2:A24"/>
@@ -2831,26 +4049,961 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="24">
+        <v>2</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="26">
+        <v>43333</v>
+      </c>
+      <c r="J28" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="B19:B28"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="12">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B2:B15"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/房管服务中心字段.xlsx
+++ b/房管服务中心字段.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="装修部" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="232">
   <si>
     <t>序号</t>
     <rPh sb="0" eb="1">
@@ -1374,6 +1374,98 @@
   </si>
   <si>
     <t>验收合格率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修部员工工作量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔断墙</t>
+  </si>
+  <si>
+    <t>A组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙面</t>
+  </si>
+  <si>
+    <t>地面</t>
+  </si>
+  <si>
+    <t>厨房</t>
+  </si>
+  <si>
+    <t>卫生间</t>
+  </si>
+  <si>
+    <t>厅卧</t>
+  </si>
+  <si>
+    <t>厨卫</t>
+  </si>
+  <si>
+    <t>阳台</t>
+  </si>
+  <si>
+    <t>改电</t>
+  </si>
+  <si>
+    <t>垃圾清运</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆除</t>
+  </si>
+  <si>
+    <t>门</t>
+  </si>
+  <si>
+    <t>塑钢门窗</t>
+  </si>
+  <si>
+    <t>申请量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批单量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内网结算量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核对施工量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班天数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签单量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程监督</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题单</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1464,7 +1556,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1732,11 +1824,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1771,6 +1917,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1778,6 +1937,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1798,33 +1975,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2127,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2179,10 +2358,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="18">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2199,14 +2378,14 @@
       <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="14">
         <v>43333</v>
       </c>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
@@ -2221,14 +2400,14 @@
       <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="14">
         <v>43333</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
@@ -2243,14 +2422,14 @@
       <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="14">
         <v>43333</v>
       </c>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
@@ -2265,14 +2444,14 @@
       <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="14">
         <v>43333</v>
       </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
@@ -2287,14 +2466,14 @@
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="14">
         <v>43333</v>
       </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
@@ -2309,14 +2488,14 @@
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="14">
         <v>43333</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2331,14 +2510,14 @@
       <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="14">
         <v>43333</v>
       </c>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
@@ -2353,14 +2532,14 @@
       <c r="H9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="14">
         <v>43333</v>
       </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
@@ -2375,14 +2554,14 @@
       <c r="H10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="14">
         <v>43333</v>
       </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
@@ -2397,14 +2576,14 @@
       <c r="H11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="14">
         <v>43333</v>
       </c>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
@@ -2419,14 +2598,14 @@
       <c r="H12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="14">
         <v>43333</v>
       </c>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
@@ -2441,14 +2620,14 @@
       <c r="H13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="14">
         <v>43333</v>
       </c>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
@@ -2463,14 +2642,14 @@
       <c r="H14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="14">
         <v>43333</v>
       </c>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
@@ -2485,14 +2664,14 @@
       <c r="H15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="14">
         <v>43333</v>
       </c>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
@@ -2507,14 +2686,14 @@
       <c r="H16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="14">
         <v>43333</v>
       </c>
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
@@ -2529,14 +2708,14 @@
       <c r="H17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="14">
         <v>43333</v>
       </c>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
@@ -2551,14 +2730,14 @@
       <c r="H18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="14">
         <v>43333</v>
       </c>
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
@@ -2573,14 +2752,14 @@
       <c r="H19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="14">
         <v>43333</v>
       </c>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
@@ -2595,14 +2774,14 @@
       <c r="H20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="14">
         <v>43333</v>
       </c>
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
@@ -2617,14 +2796,14 @@
       <c r="H21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="14">
         <v>43333</v>
       </c>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
@@ -2639,14 +2818,14 @@
       <c r="H22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="14">
         <v>43333</v>
       </c>
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="4" t="s">
         <v>52</v>
       </c>
@@ -2661,14 +2840,14 @@
       <c r="H23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="14">
         <v>43333</v>
       </c>
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="4" t="s">
         <v>54</v>
       </c>
@@ -2683,16 +2862,16 @@
       <c r="H24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="14">
         <v>43333</v>
       </c>
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="12">
+      <c r="A25" s="17">
         <v>2</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2707,14 +2886,14 @@
       <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="14">
         <v>43333</v>
       </c>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="4" t="s">
         <v>58</v>
       </c>
@@ -2729,14 +2908,14 @@
       <c r="H26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="14">
         <v>43333</v>
       </c>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="4" t="s">
         <v>60</v>
       </c>
@@ -2749,14 +2928,14 @@
       <c r="H27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="14">
         <v>43333</v>
       </c>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="4" t="s">
         <v>46</v>
       </c>
@@ -2769,14 +2948,14 @@
       <c r="H28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="14">
         <v>43333</v>
       </c>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="4" t="s">
         <v>61</v>
       </c>
@@ -2789,14 +2968,14 @@
       <c r="H29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="14">
         <v>43333</v>
       </c>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="4" t="s">
         <v>28</v>
       </c>
@@ -2809,14 +2988,14 @@
       <c r="H30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="14">
         <v>43333</v>
       </c>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="4" t="s">
         <v>62</v>
       </c>
@@ -2829,14 +3008,14 @@
       <c r="H31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="14">
         <v>43333</v>
       </c>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="4" t="s">
         <v>63</v>
       </c>
@@ -2849,14 +3028,14 @@
       <c r="H32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I32" s="14">
         <v>43333</v>
       </c>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="4" t="s">
         <v>64</v>
       </c>
@@ -2869,14 +3048,14 @@
       <c r="H33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I33" s="14">
         <v>43333</v>
       </c>
       <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="4" t="s">
         <v>65</v>
       </c>
@@ -2889,14 +3068,14 @@
       <c r="H34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="27">
+      <c r="I34" s="14">
         <v>43333</v>
       </c>
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="13"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="4" t="s">
         <v>66</v>
       </c>
@@ -2909,14 +3088,14 @@
       <c r="H35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="27">
+      <c r="I35" s="14">
         <v>43333</v>
       </c>
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="13"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="4" t="s">
         <v>67</v>
       </c>
@@ -2929,14 +3108,14 @@
       <c r="H36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="27">
+      <c r="I36" s="14">
         <v>43333</v>
       </c>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="13"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="4" t="s">
         <v>68</v>
       </c>
@@ -2949,14 +3128,14 @@
       <c r="H37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="27">
+      <c r="I37" s="14">
         <v>43333</v>
       </c>
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="13"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="4" t="s">
         <v>69</v>
       </c>
@@ -2969,14 +3148,14 @@
       <c r="H38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="27">
+      <c r="I38" s="14">
         <v>43333</v>
       </c>
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="13"/>
-      <c r="B39" s="22"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="4" t="s">
         <v>70</v>
       </c>
@@ -2989,14 +3168,14 @@
       <c r="H39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="27">
+      <c r="I39" s="14">
         <v>43333</v>
       </c>
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="13"/>
-      <c r="B40" s="22"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
@@ -3009,14 +3188,14 @@
       <c r="H40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="27">
+      <c r="I40" s="14">
         <v>43333</v>
       </c>
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="13"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="4" t="s">
         <v>72</v>
       </c>
@@ -3029,14 +3208,14 @@
       <c r="H41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="27">
+      <c r="I41" s="14">
         <v>43333</v>
       </c>
       <c r="J41" s="8"/>
     </row>
     <row r="42" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="13"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="4" t="s">
         <v>73</v>
       </c>
@@ -3049,14 +3228,14 @@
       <c r="H42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="27">
+      <c r="I42" s="14">
         <v>43333</v>
       </c>
       <c r="J42" s="8"/>
     </row>
     <row r="43" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="13"/>
-      <c r="B43" s="22"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="4" t="s">
         <v>74</v>
       </c>
@@ -3069,14 +3248,14 @@
       <c r="H43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="27">
+      <c r="I43" s="14">
         <v>43333</v>
       </c>
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="13"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="4" t="s">
         <v>75</v>
       </c>
@@ -3089,14 +3268,14 @@
       <c r="H44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="27">
+      <c r="I44" s="14">
         <v>43333</v>
       </c>
       <c r="J44" s="8"/>
     </row>
     <row r="45" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="13"/>
-      <c r="B45" s="22"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="4" t="s">
         <v>76</v>
       </c>
@@ -3109,14 +3288,14 @@
       <c r="H45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="14">
         <v>43333</v>
       </c>
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="13"/>
-      <c r="B46" s="22"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="4" t="s">
         <v>77</v>
       </c>
@@ -3129,14 +3308,14 @@
       <c r="H46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="27">
+      <c r="I46" s="14">
         <v>43333</v>
       </c>
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="13"/>
-      <c r="B47" s="22"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="4" t="s">
         <v>78</v>
       </c>
@@ -3149,14 +3328,14 @@
       <c r="H47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="27">
+      <c r="I47" s="14">
         <v>43333</v>
       </c>
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="13"/>
-      <c r="B48" s="22"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="4" t="s">
         <v>79</v>
       </c>
@@ -3169,14 +3348,14 @@
       <c r="H48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I48" s="14">
         <v>43333</v>
       </c>
       <c r="J48" s="8"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="13"/>
-      <c r="B49" s="22"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="4" t="s">
         <v>80</v>
       </c>
@@ -3189,14 +3368,14 @@
       <c r="H49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="27">
+      <c r="I49" s="14">
         <v>43333</v>
       </c>
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="13"/>
-      <c r="B50" s="22"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="4" t="s">
         <v>81</v>
       </c>
@@ -3209,14 +3388,14 @@
       <c r="H50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="27">
+      <c r="I50" s="14">
         <v>43333</v>
       </c>
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="13"/>
-      <c r="B51" s="22"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="4" t="s">
         <v>82</v>
       </c>
@@ -3229,14 +3408,14 @@
       <c r="H51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="27">
+      <c r="I51" s="14">
         <v>43333</v>
       </c>
       <c r="J51" s="8"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="13"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="4" t="s">
         <v>83</v>
       </c>
@@ -3249,14 +3428,14 @@
       <c r="H52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="27">
+      <c r="I52" s="14">
         <v>43333</v>
       </c>
       <c r="J52" s="8"/>
     </row>
     <row r="53" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A53" s="13"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="4" t="s">
         <v>84</v>
       </c>
@@ -3269,14 +3448,14 @@
       <c r="H53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I53" s="27">
+      <c r="I53" s="14">
         <v>43333</v>
       </c>
       <c r="J53" s="8"/>
     </row>
     <row r="54" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="13"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="4" t="s">
         <v>85</v>
       </c>
@@ -3289,14 +3468,14 @@
       <c r="H54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="27">
+      <c r="I54" s="14">
         <v>43333</v>
       </c>
       <c r="J54" s="8"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A55" s="13"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="4" t="s">
         <v>86</v>
       </c>
@@ -3309,14 +3488,14 @@
       <c r="H55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="27">
+      <c r="I55" s="14">
         <v>43333</v>
       </c>
       <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="13"/>
-      <c r="B56" s="22"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="4" t="s">
         <v>87</v>
       </c>
@@ -3329,14 +3508,14 @@
       <c r="H56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="27">
+      <c r="I56" s="14">
         <v>43333</v>
       </c>
       <c r="J56" s="8"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="13"/>
-      <c r="B57" s="22"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="4" t="s">
         <v>88</v>
       </c>
@@ -3349,14 +3528,14 @@
       <c r="H57" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="27">
+      <c r="I57" s="14">
         <v>43333</v>
       </c>
       <c r="J57" s="8"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="13"/>
-      <c r="B58" s="22"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="4" t="s">
         <v>89</v>
       </c>
@@ -3369,14 +3548,14 @@
       <c r="H58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="27">
+      <c r="I58" s="14">
         <v>43333</v>
       </c>
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="13"/>
-      <c r="B59" s="22"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="4" t="s">
         <v>90</v>
       </c>
@@ -3389,14 +3568,14 @@
       <c r="H59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="27">
+      <c r="I59" s="14">
         <v>43333</v>
       </c>
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="13"/>
-      <c r="B60" s="22"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
@@ -3409,14 +3588,14 @@
       <c r="H60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="27">
+      <c r="I60" s="14">
         <v>43333</v>
       </c>
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="13"/>
-      <c r="B61" s="22"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="4" t="s">
         <v>92</v>
       </c>
@@ -3429,14 +3608,14 @@
       <c r="H61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="27">
+      <c r="I61" s="14">
         <v>43333</v>
       </c>
       <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A62" s="13"/>
-      <c r="B62" s="22"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="4" t="s">
         <v>93</v>
       </c>
@@ -3449,14 +3628,14 @@
       <c r="H62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="27">
+      <c r="I62" s="14">
         <v>43333</v>
       </c>
       <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="13"/>
-      <c r="B63" s="22"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="4" t="s">
         <v>94</v>
       </c>
@@ -3469,14 +3648,14 @@
       <c r="H63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="27">
+      <c r="I63" s="14">
         <v>43333</v>
       </c>
       <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A64" s="13"/>
-      <c r="B64" s="22"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="4" t="s">
         <v>95</v>
       </c>
@@ -3489,14 +3668,14 @@
       <c r="H64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I64" s="27">
+      <c r="I64" s="14">
         <v>43333</v>
       </c>
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A65" s="13"/>
-      <c r="B65" s="22"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="4" t="s">
         <v>96</v>
       </c>
@@ -3509,14 +3688,14 @@
       <c r="H65" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="27">
+      <c r="I65" s="14">
         <v>43333</v>
       </c>
       <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="23"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="10" t="s">
         <v>97</v>
       </c>
@@ -3529,16 +3708,16 @@
       <c r="H66" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="27">
+      <c r="I66" s="14">
         <v>43333</v>
       </c>
       <c r="J66" s="11"/>
     </row>
     <row r="67" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="12">
+      <c r="A67" s="17">
         <v>3</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="26" t="s">
         <v>99</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -3553,14 +3732,14 @@
       <c r="H67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I67" s="27">
+      <c r="I67" s="14">
         <v>43333</v>
       </c>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="13"/>
-      <c r="B68" s="16"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="27"/>
       <c r="C68" s="7" t="s">
         <v>101</v>
       </c>
@@ -3573,14 +3752,14 @@
       <c r="H68" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I68" s="27">
+      <c r="I68" s="14">
         <v>43333</v>
       </c>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="16"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="7" t="s">
         <v>103</v>
       </c>
@@ -3593,14 +3772,14 @@
       <c r="H69" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I69" s="27">
+      <c r="I69" s="14">
         <v>43333</v>
       </c>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="13"/>
-      <c r="B70" s="16"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="27"/>
       <c r="C70" s="7" t="s">
         <v>104</v>
       </c>
@@ -3613,14 +3792,14 @@
       <c r="H70" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I70" s="27">
+      <c r="I70" s="14">
         <v>43333</v>
       </c>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13"/>
-      <c r="B71" s="16"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="7" t="s">
         <v>105</v>
       </c>
@@ -3633,14 +3812,14 @@
       <c r="H71" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I71" s="27">
+      <c r="I71" s="14">
         <v>43333</v>
       </c>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="13"/>
-      <c r="B72" s="16"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="7" t="s">
         <v>106</v>
       </c>
@@ -3653,14 +3832,14 @@
       <c r="H72" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I72" s="27">
+      <c r="I72" s="14">
         <v>43333</v>
       </c>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13"/>
-      <c r="B73" s="16"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="7" t="s">
         <v>107</v>
       </c>
@@ -3673,14 +3852,14 @@
       <c r="H73" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="27">
+      <c r="I73" s="14">
         <v>43333</v>
       </c>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="13"/>
-      <c r="B74" s="16"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="27"/>
       <c r="C74" s="7" t="s">
         <v>108</v>
       </c>
@@ -3693,14 +3872,14 @@
       <c r="H74" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I74" s="27">
+      <c r="I74" s="14">
         <v>43333</v>
       </c>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13"/>
-      <c r="B75" s="16"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="27"/>
       <c r="C75" s="7" t="s">
         <v>109</v>
       </c>
@@ -3713,14 +3892,14 @@
       <c r="H75" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I75" s="27">
+      <c r="I75" s="14">
         <v>43333</v>
       </c>
       <c r="J75" s="8"/>
     </row>
     <row r="76" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="16"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="27"/>
       <c r="C76" s="7" t="s">
         <v>110</v>
       </c>
@@ -3733,14 +3912,14 @@
       <c r="H76" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I76" s="27">
+      <c r="I76" s="14">
         <v>43333</v>
       </c>
       <c r="J76" s="8"/>
     </row>
     <row r="77" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13"/>
-      <c r="B77" s="16"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="27"/>
       <c r="C77" s="7" t="s">
         <v>111</v>
       </c>
@@ -3753,14 +3932,14 @@
       <c r="H77" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I77" s="27">
+      <c r="I77" s="14">
         <v>43333</v>
       </c>
       <c r="J77" s="8"/>
     </row>
     <row r="78" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13"/>
-      <c r="B78" s="16"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="27"/>
       <c r="C78" s="7" t="s">
         <v>112</v>
       </c>
@@ -3773,14 +3952,14 @@
       <c r="H78" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I78" s="27">
+      <c r="I78" s="14">
         <v>43333</v>
       </c>
       <c r="J78" s="8"/>
     </row>
     <row r="79" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="13"/>
-      <c r="B79" s="16"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="27"/>
       <c r="C79" s="7" t="s">
         <v>113</v>
       </c>
@@ -3793,14 +3972,14 @@
       <c r="H79" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I79" s="27">
+      <c r="I79" s="14">
         <v>43333</v>
       </c>
       <c r="J79" s="8"/>
     </row>
     <row r="80" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="28"/>
       <c r="C80" s="10" t="s">
         <v>114</v>
       </c>
@@ -3813,16 +3992,16 @@
       <c r="H80" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="I80" s="27">
-        <v>43333</v>
-      </c>
-      <c r="J80" s="10"/>
+      <c r="I80" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J80" s="8"/>
     </row>
     <row r="81" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="24">
+      <c r="A81" s="23">
         <v>4</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="24" t="s">
         <v>192</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -3840,17 +4019,17 @@
       <c r="G81" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H81" s="25" t="s">
+      <c r="H81" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I81" s="27">
-        <v>43333</v>
-      </c>
-      <c r="J81" s="4"/>
+      <c r="I81" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J81" s="8"/>
     </row>
     <row r="82" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="24"/>
-      <c r="B82" s="29"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
       <c r="C82" s="4" t="s">
         <v>176</v>
       </c>
@@ -3866,17 +4045,17 @@
       <c r="G82" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H82" s="25" t="s">
+      <c r="H82" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I82" s="27">
-        <v>43333</v>
-      </c>
-      <c r="J82" s="4"/>
+      <c r="I82" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J82" s="8"/>
     </row>
     <row r="83" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="24"/>
-      <c r="B83" s="29"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="24"/>
       <c r="C83" s="4" t="s">
         <v>179</v>
       </c>
@@ -3892,17 +4071,17 @@
       <c r="G83" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H83" s="25" t="s">
+      <c r="H83" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I83" s="27">
-        <v>43333</v>
-      </c>
-      <c r="J83" s="4"/>
+      <c r="I83" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J83" s="8"/>
     </row>
     <row r="84" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="24"/>
-      <c r="B84" s="29"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="24"/>
       <c r="C84" s="4" t="s">
         <v>182</v>
       </c>
@@ -3918,17 +4097,17 @@
       <c r="G84" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H84" s="25" t="s">
+      <c r="H84" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I84" s="27">
-        <v>43333</v>
-      </c>
-      <c r="J84" s="4"/>
+      <c r="I84" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J84" s="8"/>
     </row>
     <row r="85" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="24"/>
-      <c r="B85" s="29"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="4" t="s">
         <v>185</v>
       </c>
@@ -3944,17 +4123,17 @@
       <c r="G85" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H85" s="25" t="s">
+      <c r="H85" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I85" s="27">
-        <v>43333</v>
-      </c>
-      <c r="J85" s="4"/>
+      <c r="I85" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J85" s="8"/>
     </row>
     <row r="86" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="24"/>
-      <c r="B86" s="29"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="4" t="s">
         <v>188</v>
       </c>
@@ -3970,17 +4149,17 @@
       <c r="G86" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H86" s="25" t="s">
+      <c r="H86" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I86" s="27">
-        <v>43333</v>
-      </c>
-      <c r="J86" s="4"/>
+      <c r="I86" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J86" s="8"/>
     </row>
     <row r="87" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="24"/>
-      <c r="B87" s="29"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="24"/>
       <c r="C87" s="4" t="s">
         <v>190</v>
       </c>
@@ -3996,17 +4175,17 @@
       <c r="G87" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H87" s="25" t="s">
+      <c r="H87" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I87" s="27">
-        <v>43333</v>
-      </c>
-      <c r="J87" s="4"/>
+      <c r="I87" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J87" s="8"/>
     </row>
     <row r="88" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="24"/>
-      <c r="B88" s="30"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="4" t="s">
         <v>7</v>
       </c>
@@ -4022,24 +4201,590 @@
       <c r="G88" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H88" s="25" t="s">
+      <c r="H88" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I88" s="27">
-        <v>43333</v>
-      </c>
-      <c r="J88" s="28"/>
+      <c r="I88" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J88" s="8"/>
+    </row>
+    <row r="89" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="17">
+        <v>5</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I89" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="18"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I90" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="18"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H91" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I91" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="18"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I92" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="18"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I93" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="18"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H94" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I94" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="18"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H95" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I95" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J95" s="8"/>
+    </row>
+    <row r="96" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="18"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D96" s="9"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I96" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J96" s="8"/>
+    </row>
+    <row r="97" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="18"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I97" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J97" s="8"/>
+    </row>
+    <row r="98" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="18"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I98" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J98" s="8"/>
+    </row>
+    <row r="99" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="18"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I99" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J99" s="8"/>
+    </row>
+    <row r="100" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="18"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H100" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I100" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J100" s="8"/>
+    </row>
+    <row r="101" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="18"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D101" s="9"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H101" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I101" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J101" s="8"/>
+    </row>
+    <row r="102" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="18"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D102" s="9"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H102" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I102" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J102" s="8"/>
+    </row>
+    <row r="103" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="18"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H103" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I103" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J103" s="8"/>
+    </row>
+    <row r="104" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A104" s="18"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H104" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I104" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="18"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H105" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="I105" s="39">
+        <v>43333</v>
+      </c>
+      <c r="J105" s="40"/>
+    </row>
+    <row r="106" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="18"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H106" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I106" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="18"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H107" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I107" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="18"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H108" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I108" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="18"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H109" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I109" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="18"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H110" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I110" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="18"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D111" s="9"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H111" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I111" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J111" s="8"/>
+    </row>
+    <row r="112" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="18"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D112" s="9"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H112" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I112" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J112" s="8"/>
+    </row>
+    <row r="113" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="18"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D113" s="9"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H113" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I113" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J113" s="8"/>
+    </row>
+    <row r="114" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="18"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="D114" s="9"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H114" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I114" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J114" s="8"/>
+    </row>
+    <row r="115" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="18"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D115" s="9"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H115" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I115" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J115" s="8"/>
+    </row>
+    <row r="116" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A116" s="33"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H116" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I116" s="14">
+        <v>43333</v>
+      </c>
+      <c r="J116" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A2:A24"/>
+    <mergeCell ref="B2:B24"/>
+    <mergeCell ref="A25:A66"/>
+    <mergeCell ref="B25:B66"/>
+    <mergeCell ref="A89:A116"/>
+    <mergeCell ref="B89:B116"/>
     <mergeCell ref="A81:A88"/>
     <mergeCell ref="B81:B88"/>
     <mergeCell ref="A67:A80"/>
     <mergeCell ref="B67:B80"/>
-    <mergeCell ref="A2:A24"/>
-    <mergeCell ref="B2:B24"/>
-    <mergeCell ref="A25:A66"/>
-    <mergeCell ref="B25:B66"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4100,56 +4845,56 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="24">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>118</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="13">
         <v>43333</v>
       </c>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="13">
         <v>43333</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4" t="s">
         <v>122</v>
       </c>
@@ -4158,20 +4903,20 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="13">
         <v>43333</v>
       </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="4" t="s">
         <v>124</v>
       </c>
@@ -4180,20 +4925,20 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="13">
         <v>43333</v>
       </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="4" t="s">
         <v>125</v>
       </c>
@@ -4202,20 +4947,20 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="26">
-        <v>43333</v>
-      </c>
-      <c r="J6" s="28"/>
+      <c r="I6" s="13">
+        <v>43333</v>
+      </c>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="4" t="s">
         <v>127</v>
       </c>
@@ -4224,20 +4969,20 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="13">
         <v>43333</v>
       </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="4" t="s">
         <v>129</v>
       </c>
@@ -4246,20 +4991,20 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="26">
-        <v>43333</v>
-      </c>
-      <c r="J8" s="28"/>
+      <c r="I8" s="13">
+        <v>43333</v>
+      </c>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="4" t="s">
         <v>130</v>
       </c>
@@ -4268,20 +5013,20 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="13">
         <v>43333</v>
       </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="4" t="s">
         <v>131</v>
       </c>
@@ -4290,20 +5035,20 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="26">
-        <v>43333</v>
-      </c>
-      <c r="J10" s="28"/>
+      <c r="I10" s="13">
+        <v>43333</v>
+      </c>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="4" t="s">
         <v>132</v>
       </c>
@@ -4312,20 +5057,20 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="13">
         <v>43333</v>
       </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="4" t="s">
         <v>134</v>
       </c>
@@ -4334,20 +5079,20 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I12" s="26">
-        <v>43333</v>
-      </c>
-      <c r="J12" s="28"/>
+      <c r="I12" s="13">
+        <v>43333</v>
+      </c>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="4" t="s">
         <v>135</v>
       </c>
@@ -4356,20 +5101,20 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="13">
         <v>43333</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="4" t="s">
         <v>136</v>
       </c>
@@ -4378,20 +5123,20 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="26">
-        <v>43333</v>
-      </c>
-      <c r="J14" s="28"/>
+      <c r="I14" s="13">
+        <v>43333</v>
+      </c>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="4" t="s">
         <v>137</v>
       </c>
@@ -4400,20 +5145,20 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="26">
-        <v>43333</v>
-      </c>
-      <c r="J15" s="28"/>
+      <c r="I15" s="13">
+        <v>43333</v>
+      </c>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="4" t="s">
         <v>139</v>
       </c>
@@ -4422,20 +5167,20 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I16" s="26">
-        <v>43333</v>
-      </c>
-      <c r="J16" s="28"/>
+      <c r="I16" s="13">
+        <v>43333</v>
+      </c>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="4" t="s">
         <v>140</v>
       </c>
@@ -4444,20 +5189,20 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I17" s="26">
-        <v>43333</v>
-      </c>
-      <c r="J17" s="28"/>
+      <c r="I17" s="13">
+        <v>43333</v>
+      </c>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="4" t="s">
         <v>142</v>
       </c>
@@ -4466,50 +5211,50 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="26">
-        <v>43333</v>
-      </c>
-      <c r="J18" s="28"/>
+      <c r="I18" s="13">
+        <v>43333</v>
+      </c>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="24">
+      <c r="A19" s="23">
         <v>2</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>118</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="13">
         <v>43333</v>
       </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="4" t="s">
         <v>148</v>
       </c>
@@ -4522,20 +5267,20 @@
       <c r="F20" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="13">
         <v>43333</v>
       </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="4" t="s">
         <v>152</v>
       </c>
@@ -4548,20 +5293,20 @@
       <c r="F21" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="13">
         <v>43333</v>
       </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="4" t="s">
         <v>156</v>
       </c>
@@ -4574,20 +5319,20 @@
       <c r="F22" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="13">
         <v>43333</v>
       </c>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="4" t="s">
         <v>158</v>
       </c>
@@ -4600,20 +5345,20 @@
       <c r="F23" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="13">
         <v>43333</v>
       </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="4" t="s">
         <v>131</v>
       </c>
@@ -4626,20 +5371,20 @@
       <c r="F24" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="13">
         <v>43333</v>
       </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="4" t="s">
         <v>163</v>
       </c>
@@ -4652,20 +5397,20 @@
       <c r="F25" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="13">
         <v>43333</v>
       </c>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="4" t="s">
         <v>167</v>
       </c>
@@ -4678,20 +5423,20 @@
       <c r="F26" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="13">
         <v>43333</v>
       </c>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="4" t="s">
         <v>170</v>
       </c>
@@ -4704,20 +5449,20 @@
       <c r="F27" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="13">
         <v>43333</v>
       </c>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="4" t="s">
         <v>7</v>
       </c>
@@ -4730,16 +5475,16 @@
       <c r="F28" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="26">
-        <v>43333</v>
-      </c>
-      <c r="J28" s="28"/>
+      <c r="I28" s="13">
+        <v>43333</v>
+      </c>
+      <c r="J28" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4757,8 +5502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4798,10 +5543,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="12">
-        <v>4</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>193</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -4816,8 +5561,8 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="4" t="s">
         <v>101</v>
       </c>
@@ -4830,8 +5575,8 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="4" t="s">
         <v>195</v>
       </c>
@@ -4844,8 +5589,8 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="4" t="s">
         <v>196</v>
       </c>
@@ -4858,8 +5603,8 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="4" t="s">
         <v>197</v>
       </c>
@@ -4872,8 +5617,8 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="4" t="s">
         <v>198</v>
       </c>
@@ -4886,8 +5631,8 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="4" t="s">
         <v>199</v>
       </c>
@@ -4900,8 +5645,8 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="4" t="s">
         <v>200</v>
       </c>
@@ -4914,8 +5659,8 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="4" t="s">
         <v>201</v>
       </c>
@@ -4928,8 +5673,8 @@
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="4" t="s">
         <v>202</v>
       </c>
@@ -4942,8 +5687,8 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="4" t="s">
         <v>114</v>
       </c>
@@ -4956,8 +5701,8 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="4" t="s">
         <v>203</v>
       </c>
@@ -4970,8 +5715,8 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="4" t="s">
         <v>204</v>
       </c>
@@ -4984,8 +5729,8 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="10" t="s">
         <v>205</v>
       </c>

--- a/房管服务中心字段.xlsx
+++ b/房管服务中心字段.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhs/Desktop/ZT-doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="22860" windowHeight="16100"/>
   </bookViews>
   <sheets>
     <sheet name="装修部" sheetId="1" r:id="rId1"/>
@@ -12,6 +17,11 @@
     <sheet name="保洁部" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -199,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="429">
   <si>
     <t>序号</t>
     <rPh sb="0" eb="1">
@@ -1466,6 +1476,1439 @@
   </si>
   <si>
     <t>问题单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <rPh sb="0" eb="1">
+      <t>xu'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <rPh sb="0" eb="1">
+      <t>liu'cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <rPh sb="0" eb="1">
+      <t>zi'duan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段说明</t>
+    <rPh sb="0" eb="1">
+      <t>zi'duan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shuo'm</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <rPh sb="0" eb="1">
+      <t>zi'duan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供人</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集人</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji're</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <rPh sb="0" eb="1">
+      <t>ri'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei'zhu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修申请单</t>
+    <rPh sb="0" eb="1">
+      <t>wei'xiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shen'qing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修来源</t>
+    <rPh sb="0" eb="1">
+      <t>bao'xiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lai'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <rPh sb="0" eb="1">
+      <t>lai'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷绪辉</t>
+    <rPh sb="0" eb="1">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A组</t>
+    <rPh sb="1" eb="2">
+      <t>zu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请单号</t>
+    <rPh sb="0" eb="1">
+      <t>shen'qing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统生成</t>
+    <rPh sb="0" eb="1">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng'cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来电时间</t>
+    <rPh sb="0" eb="1">
+      <t>lai'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布人员</t>
+    <rPh sb="0" eb="1">
+      <t>fa'bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布者</t>
+    <rPh sb="0" eb="1">
+      <t>fa'bu'zhe</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店id</t>
+    <rPh sb="0" eb="1">
+      <t>men'dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及门店</t>
+    <rPh sb="0" eb="1">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>men'dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店</t>
+    <rPh sb="0" eb="1">
+      <t>men'dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户姓名</t>
+    <rPh sb="0" eb="1">
+      <t>ke'hu'xing'ming</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <rPh sb="0" eb="1">
+      <t>ke'hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户电话</t>
+    <rPh sb="0" eb="1">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian'hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <rPh sb="0" eb="1">
+      <t>dian'hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源地址</t>
+    <rPh sb="0" eb="1">
+      <t>fnag'yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <rPh sb="0" eb="1">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_addr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修状态</t>
+    <rPh sb="0" eb="1">
+      <t>wei'xiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang'tai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加急，一般</t>
+    <rPh sb="0" eb="1">
+      <t>jia'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'ban</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <rPh sb="0" eb="1">
+      <t>gong'ying'shang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <rPh sb="0" eb="1">
+      <t>gong'ying'shnag</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>supp_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修项目</t>
+    <rPh sb="0" eb="1">
+      <t>wei'xiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'mu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维系项目</t>
+    <rPh sb="0" eb="1">
+      <t>wei'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiag'mu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋说明</t>
+    <rPh sb="0" eb="1">
+      <t>fang'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shuo'ming</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <rPh sb="0" eb="1">
+      <t>shuo'ming</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(128)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修说明</t>
+    <rPh sb="0" eb="1">
+      <t>wei'xiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shuo'ming</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_desc</t>
+    <rPh sb="0" eb="1">
+      <t>shuo'ming</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修结果</t>
+    <rPh sb="0" eb="1">
+      <t>wei'xiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <rPh sb="0" eb="1">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_rlt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修确认时间</t>
+    <rPh sb="0" eb="1">
+      <t>wei'xi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服结果</t>
+    <rPh sb="0" eb="1">
+      <t>ke'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服确定结果</t>
+    <rPh sb="0" eb="1">
+      <t>ke'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>que'ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cust_rlt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服确认时间</t>
+    <rPh sb="0" eb="1">
+      <t>ke'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'j'ai'n</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷绪辉</t>
+    <rPh sb="0" eb="1">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xu'hui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认付款</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'kuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_rlt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算时间</t>
+    <rPh sb="0" eb="1">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>settle_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认结算</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'suan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算人</t>
+    <rPh sb="0" eb="1">
+      <t>jie'suan'ren</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算人</t>
+    <rPh sb="0" eb="1">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者id</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'jian'zhe</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者名称</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'jain</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming'cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者名称</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'jian'zhe</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming'cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'jain</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新者id</t>
+    <rPh sb="0" eb="1">
+      <t>gneg'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新者id</t>
+    <rPh sb="0" eb="1">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新者名称</t>
+    <rPh sb="0" eb="1">
+      <t>geng'xing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming'cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新者名称</t>
+    <rPh sb="0" eb="1">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming'cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <rPh sb="0" eb="1">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <rPh sb="0" eb="1">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shan'chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用</t>
+    <rPh sb="0" eb="1">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'yong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注字段</t>
+    <rPh sb="0" eb="1">
+      <t>bei'zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'duan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库表字段</t>
+    <rPh sb="0" eb="1">
+      <t>ku'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'duan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁申请单</t>
+    <rPh sb="0" eb="1">
+      <t>bao'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shen'qing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请编号</t>
+    <rPh sb="0" eb="1">
+      <t>shen'qing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <rPh sb="0" eb="1">
+      <t>bian'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张哲</t>
+    <rPh sb="0" eb="1">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属门店</t>
+    <rPh sb="0" eb="1">
+      <t>suo'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>men'dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varcahr(32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁类型</t>
+    <rPh sb="0" eb="1">
+      <t>bao'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁类型名称</t>
+    <rPh sb="0" eb="1">
+      <t>bao'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ming'chng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean_type_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张哲</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'zhe</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源地址</t>
+    <rPh sb="0" eb="1">
+      <t>fang'yuan'di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>houese_addr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> varchar(64)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁来源</t>
+    <rPh sb="0" eb="1">
+      <t>bao'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lai'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台账号</t>
+    <rPh sb="0" eb="1">
+      <t>tai'zhang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台账号</t>
+    <rPh sb="0" eb="1">
+      <t>tai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhang'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁说明</t>
+    <rPh sb="0" eb="1">
+      <t>bao'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shuo'ming</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varcahr(128)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁项目</t>
+    <rPh sb="0" eb="1">
+      <t>bao'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiagn'mu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁项目</t>
+    <rPh sb="0" eb="1">
+      <t>bao'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'mu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean_item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属区域</t>
+    <rPh sb="0" eb="1">
+      <t>suo'shu'qu'yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <rPh sb="0" eb="1">
+      <t>qu'yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁日期</t>
+    <rPh sb="0" eb="1">
+      <t>bao'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ri'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <rPh sb="0" eb="1">
+      <t>ri'q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁结果</t>
+    <rPh sb="0" eb="1">
+      <t>bao'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean_rlt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_tinme</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>updator_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>updator_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_deleted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_enable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean_desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>updator_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>call_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisher</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cust_phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_rlt_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cust_rlt_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>settle_rlt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>settleor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商表</t>
+    <rPh sb="0" eb="1">
+      <t>gong'ying'shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <rPh sb="0" eb="1">
+      <t>bain'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商编号，系统内部提供</t>
+    <rPh sb="0" eb="1">
+      <t>gong'ying'shnag</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bian'hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nei'bu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ti'gong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>supp_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈志强</t>
+    <rPh sb="0" eb="1">
+      <t>chen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi'qiang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <rPh sb="0" eb="1">
+      <t>gong'ying'shng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称</t>
+    <rPh sb="0" eb="1">
+      <t>gong'yign'shnag</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming'cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商类型</t>
+    <rPh sb="0" eb="1">
+      <t>gong'ying'shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lei'x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商类型</t>
+    <rPh sb="0" eb="1">
+      <t>gong'yin'shagn</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>supp_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域id</t>
+    <rPh sb="0" eb="1">
+      <t>qu'yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属大区id</t>
+    <rPh sb="0" eb="1">
+      <t>suo'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'qu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>region_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈志强</t>
+    <rPh sb="0" eb="1">
+      <t>chen'zhi'qiang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修类型</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang'xiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <rPh sb="0" eb="1">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deco_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈志强</t>
+    <rPh sb="0" eb="1">
+      <t>chen'zhi'qiang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi'qiang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属区域</t>
+    <rPh sb="0" eb="1">
+      <t>suo's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu'yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属大区</t>
+    <rPh sb="0" eb="1">
+      <t>suo'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'qu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <rPh sb="0" eb="1">
+      <t>xiagn'mu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主从项目</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'cong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiagn'mu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <rPh sb="0" eb="1">
+      <t>lian'xi'ren</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>link_man</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <rPh sb="0" eb="1">
+      <t>shou'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人手机号</t>
+    <rPh sb="0" eb="1">
+      <t>lian'xi'ren</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司地址</t>
+    <rPh sb="0" eb="1">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_addr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司邮箱</t>
+    <rPh sb="0" eb="1">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'xiang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册年限</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nian'xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册日期</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ri'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regist_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资金</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'jin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regist_bankroll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税点</t>
+    <rPh sb="0" eb="1">
+      <t>shui'dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_point</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务范围</t>
+    <rPh sb="0" eb="1">
+      <t>fu'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_scope</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年营业额</t>
+    <rPh sb="0" eb="1">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ying'ye</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业额</t>
+    <rPh sb="0" eb="1">
+      <t>ying'ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>e'du</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入部门ID</t>
+    <rPh sb="0" eb="1">
+      <t>yin'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'men</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门id</t>
+    <rPh sb="0" eb="1">
+      <t>bu'men</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>depart_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入部门</t>
+    <rPh sb="0" eb="1">
+      <t>yin'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'men</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">引入部门 </t>
+    <rPh sb="0" eb="1">
+      <t>yin'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'men</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1477,7 +2920,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1491,14 +2934,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1556,7 +2999,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1838,19 +3281,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1878,11 +3308,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1930,6 +3412,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1937,12 +3461,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1966,43 +3484,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2020,7 +3563,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2062,12 +3605,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2097,12 +3640,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2306,26 +3849,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="L104" sqref="L104"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="M128" sqref="M128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2357,11 +3900,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="29">
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="29" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2383,9 +3926,9 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="30"/>
-      <c r="B3" s="21"/>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
@@ -2405,9 +3948,9 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="21"/>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
@@ -2427,9 +3970,9 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="21"/>
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
@@ -2449,9 +3992,9 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
-      <c r="B6" s="21"/>
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
@@ -2471,9 +4014,9 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
-      <c r="B7" s="21"/>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
@@ -2493,9 +4036,9 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="30"/>
-      <c r="B8" s="21"/>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2515,9 +4058,9 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="30"/>
-      <c r="B9" s="21"/>
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
@@ -2537,9 +4080,9 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="30"/>
-      <c r="B10" s="21"/>
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
@@ -2559,9 +4102,9 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
-      <c r="B11" s="21"/>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
@@ -2581,9 +4124,9 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
-      <c r="B12" s="21"/>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
@@ -2603,9 +4146,9 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="21"/>
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
@@ -2625,9 +4168,9 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="21"/>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
@@ -2647,9 +4190,9 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
-      <c r="B15" s="21"/>
+    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
@@ -2669,9 +4212,9 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="21"/>
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
@@ -2691,9 +4234,9 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="21"/>
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
@@ -2713,9 +4256,9 @@
       </c>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="21"/>
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
@@ -2735,9 +4278,9 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="30"/>
-      <c r="B19" s="21"/>
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
@@ -2757,9 +4300,9 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="30"/>
-      <c r="B20" s="21"/>
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
@@ -2779,9 +4322,9 @@
       </c>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="30"/>
-      <c r="B21" s="21"/>
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
@@ -2801,9 +4344,9 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="30"/>
-      <c r="B22" s="21"/>
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
@@ -2823,9 +4366,9 @@
       </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="30"/>
-      <c r="B23" s="21"/>
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="4" t="s">
         <v>52</v>
       </c>
@@ -2845,9 +4388,9 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="21"/>
+    <row r="24" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="4" t="s">
         <v>54</v>
       </c>
@@ -2867,11 +4410,11 @@
       </c>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="17">
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="31">
         <v>2</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2891,9 +4434,9 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
-      <c r="B26" s="21"/>
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="4" t="s">
         <v>58</v>
       </c>
@@ -2913,9 +4456,9 @@
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="4" t="s">
         <v>60</v>
       </c>
@@ -2933,9 +4476,9 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="18"/>
-      <c r="B28" s="21"/>
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="32"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="4" t="s">
         <v>46</v>
       </c>
@@ -2953,9 +4496,9 @@
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="21"/>
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="4" t="s">
         <v>61</v>
       </c>
@@ -2973,9 +4516,9 @@
       </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
-      <c r="B30" s="21"/>
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="32"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="4" t="s">
         <v>28</v>
       </c>
@@ -2993,9 +4536,9 @@
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="18"/>
-      <c r="B31" s="21"/>
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="32"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="4" t="s">
         <v>62</v>
       </c>
@@ -3013,9 +4556,9 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="18"/>
-      <c r="B32" s="21"/>
+    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="32"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="4" t="s">
         <v>63</v>
       </c>
@@ -3033,9 +4576,9 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="18"/>
-      <c r="B33" s="21"/>
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="32"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="4" t="s">
         <v>64</v>
       </c>
@@ -3053,9 +4596,9 @@
       </c>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="18"/>
-      <c r="B34" s="21"/>
+    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="32"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="4" t="s">
         <v>65</v>
       </c>
@@ -3073,9 +4616,9 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="18"/>
-      <c r="B35" s="21"/>
+    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="32"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="4" t="s">
         <v>66</v>
       </c>
@@ -3093,9 +4636,9 @@
       </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="18"/>
-      <c r="B36" s="21"/>
+    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="32"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="4" t="s">
         <v>67</v>
       </c>
@@ -3113,9 +4656,9 @@
       </c>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
-      <c r="B37" s="21"/>
+    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="32"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="4" t="s">
         <v>68</v>
       </c>
@@ -3133,9 +4676,9 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="18"/>
-      <c r="B38" s="21"/>
+    <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="32"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="4" t="s">
         <v>69</v>
       </c>
@@ -3153,9 +4696,9 @@
       </c>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="18"/>
-      <c r="B39" s="21"/>
+    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="32"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="4" t="s">
         <v>70</v>
       </c>
@@ -3173,9 +4716,9 @@
       </c>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="18"/>
-      <c r="B40" s="21"/>
+    <row r="40" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="32"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
@@ -3193,9 +4736,9 @@
       </c>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="18"/>
-      <c r="B41" s="21"/>
+    <row r="41" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="32"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="4" t="s">
         <v>72</v>
       </c>
@@ -3213,9 +4756,9 @@
       </c>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="18"/>
-      <c r="B42" s="21"/>
+    <row r="42" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="32"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="4" t="s">
         <v>73</v>
       </c>
@@ -3233,9 +4776,9 @@
       </c>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="18"/>
-      <c r="B43" s="21"/>
+    <row r="43" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="32"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="4" t="s">
         <v>74</v>
       </c>
@@ -3253,9 +4796,9 @@
       </c>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="18"/>
-      <c r="B44" s="21"/>
+    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="32"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="4" t="s">
         <v>75</v>
       </c>
@@ -3273,9 +4816,9 @@
       </c>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="18"/>
-      <c r="B45" s="21"/>
+    <row r="45" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="32"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="4" t="s">
         <v>76</v>
       </c>
@@ -3293,9 +4836,9 @@
       </c>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="18"/>
-      <c r="B46" s="21"/>
+    <row r="46" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="32"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="4" t="s">
         <v>77</v>
       </c>
@@ -3313,9 +4856,9 @@
       </c>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="18"/>
-      <c r="B47" s="21"/>
+    <row r="47" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="32"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="4" t="s">
         <v>78</v>
       </c>
@@ -3333,9 +4876,9 @@
       </c>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="18"/>
-      <c r="B48" s="21"/>
+    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="32"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="4" t="s">
         <v>79</v>
       </c>
@@ -3353,9 +4896,9 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="18"/>
-      <c r="B49" s="21"/>
+    <row r="49" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="32"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="4" t="s">
         <v>80</v>
       </c>
@@ -3373,9 +4916,9 @@
       </c>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="18"/>
-      <c r="B50" s="21"/>
+    <row r="50" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="32"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="4" t="s">
         <v>81</v>
       </c>
@@ -3393,9 +4936,9 @@
       </c>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="18"/>
-      <c r="B51" s="21"/>
+    <row r="51" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="32"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="4" t="s">
         <v>82</v>
       </c>
@@ -3413,9 +4956,9 @@
       </c>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="18"/>
-      <c r="B52" s="21"/>
+    <row r="52" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="32"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="4" t="s">
         <v>83</v>
       </c>
@@ -3433,9 +4976,9 @@
       </c>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A53" s="18"/>
-      <c r="B53" s="21"/>
+    <row r="53" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="32"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="4" t="s">
         <v>84</v>
       </c>
@@ -3453,9 +4996,9 @@
       </c>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="18"/>
-      <c r="B54" s="21"/>
+    <row r="54" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="32"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="4" t="s">
         <v>85</v>
       </c>
@@ -3473,9 +5016,9 @@
       </c>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A55" s="18"/>
-      <c r="B55" s="21"/>
+    <row r="55" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="32"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="4" t="s">
         <v>86</v>
       </c>
@@ -3493,9 +5036,9 @@
       </c>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="18"/>
-      <c r="B56" s="21"/>
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="32"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="4" t="s">
         <v>87</v>
       </c>
@@ -3513,9 +5056,9 @@
       </c>
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="18"/>
-      <c r="B57" s="21"/>
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="32"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="4" t="s">
         <v>88</v>
       </c>
@@ -3533,9 +5076,9 @@
       </c>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="18"/>
-      <c r="B58" s="21"/>
+    <row r="58" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="32"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="4" t="s">
         <v>89</v>
       </c>
@@ -3553,9 +5096,9 @@
       </c>
       <c r="J58" s="8"/>
     </row>
-    <row r="59" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="18"/>
-      <c r="B59" s="21"/>
+    <row r="59" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="32"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="4" t="s">
         <v>90</v>
       </c>
@@ -3573,9 +5116,9 @@
       </c>
       <c r="J59" s="8"/>
     </row>
-    <row r="60" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="18"/>
-      <c r="B60" s="21"/>
+    <row r="60" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="32"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
@@ -3593,9 +5136,9 @@
       </c>
       <c r="J60" s="8"/>
     </row>
-    <row r="61" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="18"/>
-      <c r="B61" s="21"/>
+    <row r="61" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="32"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="4" t="s">
         <v>92</v>
       </c>
@@ -3613,9 +5156,9 @@
       </c>
       <c r="J61" s="8"/>
     </row>
-    <row r="62" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A62" s="18"/>
-      <c r="B62" s="21"/>
+    <row r="62" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" s="32"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="4" t="s">
         <v>93</v>
       </c>
@@ -3633,9 +5176,9 @@
       </c>
       <c r="J62" s="8"/>
     </row>
-    <row r="63" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="18"/>
-      <c r="B63" s="21"/>
+    <row r="63" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" s="32"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="4" t="s">
         <v>94</v>
       </c>
@@ -3653,9 +5196,9 @@
       </c>
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A64" s="18"/>
-      <c r="B64" s="21"/>
+    <row r="64" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="32"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="4" t="s">
         <v>95</v>
       </c>
@@ -3673,9 +5216,9 @@
       </c>
       <c r="J64" s="8"/>
     </row>
-    <row r="65" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A65" s="18"/>
-      <c r="B65" s="21"/>
+    <row r="65" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" s="32"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="4" t="s">
         <v>96</v>
       </c>
@@ -3693,9 +5236,9 @@
       </c>
       <c r="J65" s="8"/>
     </row>
-    <row r="66" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="19"/>
-      <c r="B66" s="22"/>
+    <row r="66" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="33"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="10" t="s">
         <v>97</v>
       </c>
@@ -3713,11 +5256,11 @@
       </c>
       <c r="J66" s="11"/>
     </row>
-    <row r="67" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="17">
+    <row r="67" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="31">
         <v>3</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="38" t="s">
         <v>99</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -3737,9 +5280,9 @@
       </c>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
-      <c r="B68" s="27"/>
+    <row r="68" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="32"/>
+      <c r="B68" s="39"/>
       <c r="C68" s="7" t="s">
         <v>101</v>
       </c>
@@ -3757,9 +5300,9 @@
       </c>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="27"/>
+    <row r="69" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="32"/>
+      <c r="B69" s="39"/>
       <c r="C69" s="7" t="s">
         <v>103</v>
       </c>
@@ -3777,9 +5320,9 @@
       </c>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="18"/>
-      <c r="B70" s="27"/>
+    <row r="70" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="32"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="7" t="s">
         <v>104</v>
       </c>
@@ -3797,9 +5340,9 @@
       </c>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
-      <c r="B71" s="27"/>
+    <row r="71" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="32"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="7" t="s">
         <v>105</v>
       </c>
@@ -3817,9 +5360,9 @@
       </c>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
-      <c r="B72" s="27"/>
+    <row r="72" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="32"/>
+      <c r="B72" s="39"/>
       <c r="C72" s="7" t="s">
         <v>106</v>
       </c>
@@ -3837,9 +5380,9 @@
       </c>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="27"/>
+    <row r="73" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="32"/>
+      <c r="B73" s="39"/>
       <c r="C73" s="7" t="s">
         <v>107</v>
       </c>
@@ -3857,9 +5400,9 @@
       </c>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
-      <c r="B74" s="27"/>
+    <row r="74" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="32"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="7" t="s">
         <v>108</v>
       </c>
@@ -3877,9 +5420,9 @@
       </c>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="18"/>
-      <c r="B75" s="27"/>
+    <row r="75" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="32"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="7" t="s">
         <v>109</v>
       </c>
@@ -3897,9 +5440,9 @@
       </c>
       <c r="J75" s="8"/>
     </row>
-    <row r="76" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
-      <c r="B76" s="27"/>
+    <row r="76" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="32"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="7" t="s">
         <v>110</v>
       </c>
@@ -3917,9 +5460,9 @@
       </c>
       <c r="J76" s="8"/>
     </row>
-    <row r="77" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
-      <c r="B77" s="27"/>
+    <row r="77" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="32"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="7" t="s">
         <v>111</v>
       </c>
@@ -3937,9 +5480,9 @@
       </c>
       <c r="J77" s="8"/>
     </row>
-    <row r="78" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
-      <c r="B78" s="27"/>
+    <row r="78" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="32"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="7" t="s">
         <v>112</v>
       </c>
@@ -3957,9 +5500,9 @@
       </c>
       <c r="J78" s="8"/>
     </row>
-    <row r="79" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
-      <c r="B79" s="27"/>
+    <row r="79" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="32"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="7" t="s">
         <v>113</v>
       </c>
@@ -3977,9 +5520,9 @@
       </c>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="19"/>
-      <c r="B80" s="28"/>
+    <row r="80" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="33"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="10" t="s">
         <v>114</v>
       </c>
@@ -3997,11 +5540,11 @@
       </c>
       <c r="J80" s="8"/>
     </row>
-    <row r="81" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="23">
+    <row r="81" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="35">
         <v>4</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="36" t="s">
         <v>192</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -4027,9 +5570,9 @@
       </c>
       <c r="J81" s="8"/>
     </row>
-    <row r="82" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
+    <row r="82" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="35"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="4" t="s">
         <v>176</v>
       </c>
@@ -4053,9 +5596,9 @@
       </c>
       <c r="J82" s="8"/>
     </row>
-    <row r="83" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="23"/>
-      <c r="B83" s="24"/>
+    <row r="83" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="35"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="4" t="s">
         <v>179</v>
       </c>
@@ -4079,9 +5622,9 @@
       </c>
       <c r="J83" s="8"/>
     </row>
-    <row r="84" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="23"/>
-      <c r="B84" s="24"/>
+    <row r="84" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="35"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="4" t="s">
         <v>182</v>
       </c>
@@ -4105,9 +5648,9 @@
       </c>
       <c r="J84" s="8"/>
     </row>
-    <row r="85" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="23"/>
-      <c r="B85" s="24"/>
+    <row r="85" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="35"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="4" t="s">
         <v>185</v>
       </c>
@@ -4131,9 +5674,9 @@
       </c>
       <c r="J85" s="8"/>
     </row>
-    <row r="86" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="23"/>
-      <c r="B86" s="24"/>
+    <row r="86" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="35"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="4" t="s">
         <v>188</v>
       </c>
@@ -4157,9 +5700,9 @@
       </c>
       <c r="J86" s="8"/>
     </row>
-    <row r="87" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="23"/>
-      <c r="B87" s="24"/>
+    <row r="87" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="35"/>
+      <c r="B87" s="36"/>
       <c r="C87" s="4" t="s">
         <v>190</v>
       </c>
@@ -4183,9 +5726,9 @@
       </c>
       <c r="J87" s="8"/>
     </row>
-    <row r="88" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="23"/>
-      <c r="B88" s="25"/>
+    <row r="88" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="35"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="4" t="s">
         <v>7</v>
       </c>
@@ -4209,11 +5752,11 @@
       </c>
       <c r="J88" s="8"/>
     </row>
-    <row r="89" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="17">
+    <row r="89" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="31">
         <v>5</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="29" t="s">
         <v>206</v>
       </c>
       <c r="C89" s="16" t="s">
@@ -4233,9 +5776,9 @@
       </c>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="18"/>
-      <c r="B90" s="21"/>
+    <row r="90" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="32"/>
+      <c r="B90" s="30"/>
       <c r="C90" s="16" t="s">
         <v>209</v>
       </c>
@@ -4253,9 +5796,9 @@
       </c>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="18"/>
-      <c r="B91" s="21"/>
+    <row r="91" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="32"/>
+      <c r="B91" s="30"/>
       <c r="C91" s="16" t="s">
         <v>210</v>
       </c>
@@ -4273,9 +5816,9 @@
       </c>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="18"/>
-      <c r="B92" s="21"/>
+    <row r="92" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="32"/>
+      <c r="B92" s="30"/>
       <c r="C92" s="16" t="s">
         <v>211</v>
       </c>
@@ -4293,9 +5836,9 @@
       </c>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="18"/>
-      <c r="B93" s="21"/>
+    <row r="93" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="32"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="16" t="s">
         <v>211</v>
       </c>
@@ -4313,9 +5856,9 @@
       </c>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="18"/>
-      <c r="B94" s="21"/>
+    <row r="94" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="32"/>
+      <c r="B94" s="30"/>
       <c r="C94" s="16" t="s">
         <v>212</v>
       </c>
@@ -4333,9 +5876,9 @@
       </c>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="18"/>
-      <c r="B95" s="21"/>
+    <row r="95" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="32"/>
+      <c r="B95" s="30"/>
       <c r="C95" s="16" t="s">
         <v>212</v>
       </c>
@@ -4353,9 +5896,9 @@
       </c>
       <c r="J95" s="8"/>
     </row>
-    <row r="96" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="18"/>
-      <c r="B96" s="21"/>
+    <row r="96" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="32"/>
+      <c r="B96" s="30"/>
       <c r="C96" s="16" t="s">
         <v>212</v>
       </c>
@@ -4373,9 +5916,9 @@
       </c>
       <c r="J96" s="8"/>
     </row>
-    <row r="97" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="18"/>
-      <c r="B97" s="21"/>
+    <row r="97" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="32"/>
+      <c r="B97" s="30"/>
       <c r="C97" s="16" t="s">
         <v>213</v>
       </c>
@@ -4393,9 +5936,9 @@
       </c>
       <c r="J97" s="8"/>
     </row>
-    <row r="98" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="18"/>
-      <c r="B98" s="21"/>
+    <row r="98" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="32"/>
+      <c r="B98" s="30"/>
       <c r="C98" s="16" t="s">
         <v>214</v>
       </c>
@@ -4413,9 +5956,9 @@
       </c>
       <c r="J98" s="8"/>
     </row>
-    <row r="99" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="18"/>
-      <c r="B99" s="21"/>
+    <row r="99" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="32"/>
+      <c r="B99" s="30"/>
       <c r="C99" s="16" t="s">
         <v>215</v>
       </c>
@@ -4433,9 +5976,9 @@
       </c>
       <c r="J99" s="8"/>
     </row>
-    <row r="100" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="18"/>
-      <c r="B100" s="21"/>
+    <row r="100" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="32"/>
+      <c r="B100" s="30"/>
       <c r="C100" s="16" t="s">
         <v>216</v>
       </c>
@@ -4453,9 +5996,9 @@
       </c>
       <c r="J100" s="8"/>
     </row>
-    <row r="101" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="18"/>
-      <c r="B101" s="21"/>
+    <row r="101" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="32"/>
+      <c r="B101" s="30"/>
       <c r="C101" s="16" t="s">
         <v>217</v>
       </c>
@@ -4473,9 +6016,9 @@
       </c>
       <c r="J101" s="8"/>
     </row>
-    <row r="102" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="18"/>
-      <c r="B102" s="21"/>
+    <row r="102" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="32"/>
+      <c r="B102" s="30"/>
       <c r="C102" s="16" t="s">
         <v>218</v>
       </c>
@@ -4493,9 +6036,9 @@
       </c>
       <c r="J102" s="8"/>
     </row>
-    <row r="103" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="18"/>
-      <c r="B103" s="21"/>
+    <row r="103" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="32"/>
+      <c r="B103" s="30"/>
       <c r="C103" s="16" t="s">
         <v>219</v>
       </c>
@@ -4513,10 +6056,10 @@
       </c>
       <c r="J103" s="8"/>
     </row>
-    <row r="104" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A104" s="18"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="41" t="s">
+    <row r="104" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A104" s="32"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="25" t="s">
         <v>220</v>
       </c>
       <c r="D104" s="16"/>
@@ -4533,30 +6076,30 @@
       </c>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="18"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="35" t="s">
+    <row r="105" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="32"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="38" t="s">
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H105" s="36" t="s">
+      <c r="H105" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="I105" s="39">
-        <v>43333</v>
-      </c>
-      <c r="J105" s="40"/>
-    </row>
-    <row r="106" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="18"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="32" t="s">
+      <c r="I105" s="23">
+        <v>43333</v>
+      </c>
+      <c r="J105" s="24"/>
+    </row>
+    <row r="106" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="32"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="18" t="s">
         <v>222</v>
       </c>
       <c r="D106" s="6"/>
@@ -4573,10 +6116,10 @@
       </c>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="18"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="32" t="s">
+    <row r="107" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="32"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="18" t="s">
         <v>223</v>
       </c>
       <c r="D107" s="6"/>
@@ -4593,10 +6136,10 @@
       </c>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="18"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="32" t="s">
+    <row r="108" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="32"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="18" t="s">
         <v>224</v>
       </c>
       <c r="D108" s="6"/>
@@ -4613,10 +6156,10 @@
       </c>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="18"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="32" t="s">
+    <row r="109" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="32"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="18" t="s">
         <v>225</v>
       </c>
       <c r="D109" s="6"/>
@@ -4633,10 +6176,10 @@
       </c>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="18"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="32" t="s">
+    <row r="110" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="32"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="18" t="s">
         <v>226</v>
       </c>
       <c r="D110" s="6"/>
@@ -4653,10 +6196,10 @@
       </c>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="18"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="32" t="s">
+    <row r="111" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="32"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="18" t="s">
         <v>227</v>
       </c>
       <c r="D111" s="9"/>
@@ -4673,10 +6216,10 @@
       </c>
       <c r="J111" s="8"/>
     </row>
-    <row r="112" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="18"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="32" t="s">
+    <row r="112" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="32"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="18" t="s">
         <v>228</v>
       </c>
       <c r="D112" s="9"/>
@@ -4693,10 +6236,10 @@
       </c>
       <c r="J112" s="8"/>
     </row>
-    <row r="113" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="18"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="32" t="s">
+    <row r="113" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="32"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="18" t="s">
         <v>229</v>
       </c>
       <c r="D113" s="9"/>
@@ -4713,10 +6256,10 @@
       </c>
       <c r="J113" s="8"/>
     </row>
-    <row r="114" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="18"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="32" t="s">
+    <row r="114" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="32"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="18" t="s">
         <v>230</v>
       </c>
       <c r="D114" s="9"/>
@@ -4733,10 +6276,10 @@
       </c>
       <c r="J114" s="8"/>
     </row>
-    <row r="115" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="18"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="32" t="s">
+    <row r="115" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="32"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="18" t="s">
         <v>231</v>
       </c>
       <c r="D115" s="9"/>
@@ -4753,28 +6296,736 @@
       </c>
       <c r="J115" s="8"/>
     </row>
-    <row r="116" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A116" s="33"/>
-      <c r="B116" s="34"/>
-      <c r="C116" s="32" t="s">
+    <row r="116" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="32"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="D116" s="6"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16" t="s">
+      <c r="D116" s="9"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H116" s="16" t="s">
+      <c r="H116" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="I116" s="14">
-        <v>43333</v>
-      </c>
-      <c r="J116" s="5"/>
+      <c r="I116" s="64">
+        <v>43333</v>
+      </c>
+      <c r="J116" s="8"/>
+    </row>
+    <row r="117" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A117" s="61">
+        <v>6</v>
+      </c>
+      <c r="B117" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="C117" s="55" t="s">
+        <v>378</v>
+      </c>
+      <c r="D117" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="E117" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="F117" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="G117" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="H117" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="I117" s="57">
+        <v>43326</v>
+      </c>
+      <c r="J117" s="58"/>
+    </row>
+    <row r="118" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A118" s="42"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I118" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A119" s="42"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I119" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A120" s="42"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="F120" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I120" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A121" s="42"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="F121" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I121" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A122" s="42"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="F122" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I122" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A123" s="42"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="F123" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I123" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A124" s="42"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="F124" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I124" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A125" s="42"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="F125" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I125" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J125" s="5"/>
+    </row>
+    <row r="126" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A126" s="42"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="F126" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I126" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A127" s="42"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="E127" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="F127" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I127" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A128" s="42"/>
+      <c r="B128" s="35"/>
+      <c r="C128" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="F128" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I128" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J128" s="5"/>
+    </row>
+    <row r="129" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A129" s="42"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="E129" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="F129" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I129" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A130" s="42"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="E130" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="F130" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I130" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J130" s="5"/>
+    </row>
+    <row r="131" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A131" s="42"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="E131" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="F131" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I131" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J131" s="5"/>
+    </row>
+    <row r="132" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A132" s="42"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="E132" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="F132" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I132" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J132" s="5"/>
+    </row>
+    <row r="133" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A133" s="42"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="E133" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="F133" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I133" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J133" s="5"/>
+    </row>
+    <row r="134" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A134" s="42"/>
+      <c r="B134" s="35"/>
+      <c r="C134" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="F134" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I134" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J134" s="5"/>
+    </row>
+    <row r="135" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A135" s="42"/>
+      <c r="B135" s="35"/>
+      <c r="C135" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F135" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I135" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J135" s="5"/>
+    </row>
+    <row r="136" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A136" s="42"/>
+      <c r="B136" s="35"/>
+      <c r="C136" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F136" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I136" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J136" s="5"/>
+    </row>
+    <row r="137" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A137" s="42"/>
+      <c r="B137" s="35"/>
+      <c r="C137" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="F137" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I137" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J137" s="5"/>
+    </row>
+    <row r="138" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A138" s="42"/>
+      <c r="B138" s="35"/>
+      <c r="C138" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H138" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I138" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J138" s="5"/>
+    </row>
+    <row r="139" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A139" s="42"/>
+      <c r="B139" s="35"/>
+      <c r="C139" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="E139" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="F139" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H139" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I139" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J139" s="5"/>
+    </row>
+    <row r="140" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A140" s="42"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="E140" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="F140" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H140" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I140" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J140" s="5"/>
+    </row>
+    <row r="141" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A141" s="42"/>
+      <c r="B141" s="35"/>
+      <c r="C141" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="E141" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="F141" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H141" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I141" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J141" s="5"/>
+    </row>
+    <row r="142" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A142" s="42"/>
+      <c r="B142" s="35"/>
+      <c r="C142" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="E142" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="F142" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H142" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I142" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J142" s="5"/>
+    </row>
+    <row r="143" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="45"/>
+      <c r="B143" s="46"/>
+      <c r="C143" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G143" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="H143" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="I143" s="48">
+        <v>43326</v>
+      </c>
+      <c r="J143" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A117:A143"/>
+    <mergeCell ref="B117:B143"/>
     <mergeCell ref="A2:A24"/>
     <mergeCell ref="B2:B24"/>
     <mergeCell ref="A25:A66"/>
@@ -4794,25 +7045,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4844,11 +7096,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="23">
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="35" t="s">
         <v>118</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -4870,9 +7122,9 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>120</v>
       </c>
@@ -4892,9 +7144,9 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="4" t="s">
         <v>122</v>
       </c>
@@ -4914,9 +7166,9 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="4" t="s">
         <v>124</v>
       </c>
@@ -4936,9 +7188,9 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="4" t="s">
         <v>125</v>
       </c>
@@ -4958,9 +7210,9 @@
       </c>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="4" t="s">
         <v>127</v>
       </c>
@@ -4980,9 +7232,9 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="4" t="s">
         <v>129</v>
       </c>
@@ -5002,9 +7254,9 @@
       </c>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="4" t="s">
         <v>130</v>
       </c>
@@ -5024,9 +7276,9 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="4" t="s">
         <v>131</v>
       </c>
@@ -5046,9 +7298,9 @@
       </c>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="4" t="s">
         <v>132</v>
       </c>
@@ -5068,9 +7320,9 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="4" t="s">
         <v>134</v>
       </c>
@@ -5090,9 +7342,9 @@
       </c>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="4" t="s">
         <v>135</v>
       </c>
@@ -5112,9 +7364,9 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="4" t="s">
         <v>136</v>
       </c>
@@ -5134,9 +7386,9 @@
       </c>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
+    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="4" t="s">
         <v>137</v>
       </c>
@@ -5156,9 +7408,9 @@
       </c>
       <c r="J15" s="15"/>
     </row>
-    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="4" t="s">
         <v>139</v>
       </c>
@@ -5178,9 +7430,9 @@
       </c>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="4" t="s">
         <v>140</v>
       </c>
@@ -5200,71 +7452,71 @@
       </c>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="4" t="s">
+    <row r="18" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="12" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="13">
-        <v>43333</v>
-      </c>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="23">
+      <c r="I18" s="51">
+        <v>43333</v>
+      </c>
+      <c r="J18" s="52"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="61">
         <v>2</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="I19" s="13">
-        <v>43333</v>
-      </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="4" t="s">
+      <c r="I19" s="57">
+        <v>43333</v>
+      </c>
+      <c r="J19" s="58"/>
+    </row>
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="42"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="17" t="s">
         <v>151</v>
       </c>
       <c r="G20" s="12" t="s">
@@ -5276,21 +7528,21 @@
       <c r="I20" s="13">
         <v>43333</v>
       </c>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="4" t="s">
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="17" t="s">
         <v>155</v>
       </c>
       <c r="G21" s="12" t="s">
@@ -5302,21 +7554,21 @@
       <c r="I21" s="13">
         <v>43333</v>
       </c>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="4" t="s">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="42"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="17" t="s">
         <v>151</v>
       </c>
       <c r="G22" s="12" t="s">
@@ -5328,21 +7580,21 @@
       <c r="I22" s="13">
         <v>43333</v>
       </c>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="4" t="s">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="42"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="17" t="s">
         <v>161</v>
       </c>
       <c r="G23" s="12" t="s">
@@ -5354,21 +7606,21 @@
       <c r="I23" s="13">
         <v>43333</v>
       </c>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="4" t="s">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="17" t="s">
         <v>155</v>
       </c>
       <c r="G24" s="12" t="s">
@@ -5380,21 +7632,21 @@
       <c r="I24" s="13">
         <v>43333</v>
       </c>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="4" t="s">
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="42"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="17" t="s">
         <v>166</v>
       </c>
       <c r="G25" s="12" t="s">
@@ -5406,21 +7658,21 @@
       <c r="I25" s="13">
         <v>43333</v>
       </c>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="4" t="s">
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="42"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="17" t="s">
         <v>169</v>
       </c>
       <c r="G26" s="12" t="s">
@@ -5432,21 +7684,21 @@
       <c r="I26" s="13">
         <v>43333</v>
       </c>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="4" t="s">
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="42"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="17" t="s">
         <v>169</v>
       </c>
       <c r="G27" s="12" t="s">
@@ -5458,40 +7710,852 @@
       <c r="I27" s="13">
         <v>43333</v>
       </c>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="4" t="s">
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="13">
-        <v>43333</v>
-      </c>
-      <c r="J28" s="15"/>
+      <c r="I28" s="62">
+        <v>43333</v>
+      </c>
+      <c r="J28" s="49"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="53">
+        <v>3</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="H29" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="I29" s="57">
+        <v>43326</v>
+      </c>
+      <c r="J29" s="58"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="59"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I30" s="13">
+        <v>43326</v>
+      </c>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="59"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I31" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="59"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I32" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="59"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I33" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="59"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I34" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="59"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I35" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="59"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I36" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="59"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I37" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="59"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I38" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="59"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I39" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="59"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I40" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="59"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I41" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="59"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I42" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="59"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I43" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="59"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I44" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="59"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I45" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="59"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I46" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="59"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I47" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="59"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="I48" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="59"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I49" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="59"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I50" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="59"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I51" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="59"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I52" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="59"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I53" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="59"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I54" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="59"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I55" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="59"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I56" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="59"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I57" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="59"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I58" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="60"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G59" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="H59" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="I59" s="48">
+        <v>43326</v>
+      </c>
+      <c r="J59" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="B2:B18"/>
     <mergeCell ref="A19:A28"/>
     <mergeCell ref="B19:B28"/>
+    <mergeCell ref="A29:A59"/>
+    <mergeCell ref="B29:B59"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5500,23 +8564,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="16.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5530,220 +8597,864 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="31" t="s">
         <v>193</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>194</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="4" t="s">
         <v>195</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="4" t="s">
         <v>197</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="4" t="s">
         <v>198</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="4" t="s">
         <v>202</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="4" t="s">
         <v>203</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="4" t="s">
         <v>204</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="10" t="s">
         <v>205</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="42">
+        <v>2</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I17" s="13">
+        <v>43326</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I18" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="42"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I19" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="42"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I20" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I21" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="42"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I22" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="42"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I23" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I24" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="42"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I25" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="42"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I26" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="42"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I27" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="42"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I28" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I29" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I30" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I31" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I32" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="42"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I33" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="42"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I34" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J34" s="43"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="42"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I35" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J35" s="44"/>
+    </row>
+    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="42"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I36" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J36" s="44"/>
+    </row>
+    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="42"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I37" s="14">
+        <v>43326</v>
+      </c>
+      <c r="J37" s="44"/>
+    </row>
+    <row r="38" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="45"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="H38" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="I38" s="48">
+        <v>43326</v>
+      </c>
+      <c r="J38" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="A17:A38"/>
+    <mergeCell ref="B17:B38"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="B2:B15"/>
   </mergeCells>

--- a/房管服务中心字段.xlsx
+++ b/房管服务中心字段.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhs/Desktop/ZT-doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="22860" windowHeight="16100"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="22860" windowHeight="16095"/>
   </bookViews>
   <sheets>
     <sheet name="装修部" sheetId="1" r:id="rId1"/>
@@ -2916,7 +2911,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3439,6 +3434,61 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3466,9 +3516,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3487,65 +3534,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3605,7 +3600,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -3640,7 +3635,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -3851,24 +3846,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="M128" sqref="M128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="7.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3900,11 +3895,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="26">
+    <row r="2" spans="1:10" ht="17.25">
+      <c r="A2" s="47">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="50" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3926,9 +3921,9 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="30"/>
+    <row r="3" spans="1:10" ht="17.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3948,9 +3943,9 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="30"/>
+    <row r="4" spans="1:10" ht="17.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
@@ -3970,9 +3965,9 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="30"/>
+    <row r="5" spans="1:10" ht="17.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3992,9 +3987,9 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="30"/>
+    <row r="6" spans="1:10" ht="17.25">
+      <c r="A6" s="48"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
@@ -4014,9 +4009,9 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="30"/>
+    <row r="7" spans="1:10" ht="17.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
@@ -4036,9 +4031,9 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="30"/>
+    <row r="8" spans="1:10" ht="17.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4058,9 +4053,9 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="30"/>
+    <row r="9" spans="1:10" ht="17.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
@@ -4080,9 +4075,9 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="30"/>
+    <row r="10" spans="1:10" ht="17.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
@@ -4102,9 +4097,9 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="30"/>
+    <row r="11" spans="1:10" ht="17.25">
+      <c r="A11" s="48"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
@@ -4124,9 +4119,9 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="30"/>
+    <row r="12" spans="1:10" ht="17.25">
+      <c r="A12" s="48"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
@@ -4146,9 +4141,9 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="30"/>
+    <row r="13" spans="1:10" ht="17.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
@@ -4168,9 +4163,9 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="30"/>
+    <row r="14" spans="1:10" ht="17.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
@@ -4190,9 +4185,9 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="30"/>
+    <row r="15" spans="1:10" ht="17.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4212,9 +4207,9 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="30"/>
+    <row r="16" spans="1:10" ht="17.25">
+      <c r="A16" s="48"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
@@ -4234,9 +4229,9 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
+    <row r="17" spans="1:10" ht="17.25">
+      <c r="A17" s="48"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
@@ -4256,9 +4251,9 @@
       </c>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="30"/>
+    <row r="18" spans="1:10" ht="17.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
@@ -4278,9 +4273,9 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="30"/>
+    <row r="19" spans="1:10" ht="17.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
@@ -4300,9 +4295,9 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="30"/>
+    <row r="20" spans="1:10" ht="17.25">
+      <c r="A20" s="48"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
@@ -4322,9 +4317,9 @@
       </c>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="30"/>
+    <row r="21" spans="1:10" ht="17.25">
+      <c r="A21" s="48"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
@@ -4344,9 +4339,9 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="30"/>
+    <row r="22" spans="1:10" ht="17.25">
+      <c r="A22" s="48"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
@@ -4366,9 +4361,9 @@
       </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="30"/>
+    <row r="23" spans="1:10" ht="17.25">
+      <c r="A23" s="48"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="4" t="s">
         <v>52</v>
       </c>
@@ -4388,9 +4383,9 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="30"/>
+    <row r="24" spans="1:10" ht="18" thickBot="1">
+      <c r="A24" s="49"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="4" t="s">
         <v>54</v>
       </c>
@@ -4410,11 +4405,11 @@
       </c>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="31">
+    <row r="25" spans="1:10" ht="17.25">
+      <c r="A25" s="52">
         <v>2</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="50" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -4434,9 +4429,9 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="30"/>
+    <row r="26" spans="1:10" ht="17.25">
+      <c r="A26" s="53"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="4" t="s">
         <v>58</v>
       </c>
@@ -4456,9 +4451,9 @@
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="30"/>
+    <row r="27" spans="1:10" ht="17.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="4" t="s">
         <v>60</v>
       </c>
@@ -4476,9 +4471,9 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="30"/>
+    <row r="28" spans="1:10" ht="17.25">
+      <c r="A28" s="53"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="4" t="s">
         <v>46</v>
       </c>
@@ -4496,9 +4491,9 @@
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="30"/>
+    <row r="29" spans="1:10" ht="17.25">
+      <c r="A29" s="53"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="4" t="s">
         <v>61</v>
       </c>
@@ -4516,9 +4511,9 @@
       </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="30"/>
+    <row r="30" spans="1:10" ht="17.25">
+      <c r="A30" s="53"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="4" t="s">
         <v>28</v>
       </c>
@@ -4536,9 +4531,9 @@
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
-      <c r="B31" s="30"/>
+    <row r="31" spans="1:10" ht="17.25">
+      <c r="A31" s="53"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="4" t="s">
         <v>62</v>
       </c>
@@ -4556,9 +4551,9 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="30"/>
+    <row r="32" spans="1:10" ht="17.25">
+      <c r="A32" s="53"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="4" t="s">
         <v>63</v>
       </c>
@@ -4576,9 +4571,9 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="30"/>
+    <row r="33" spans="1:10" ht="17.25">
+      <c r="A33" s="53"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="4" t="s">
         <v>64</v>
       </c>
@@ -4596,9 +4591,9 @@
       </c>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="30"/>
+    <row r="34" spans="1:10" ht="17.25">
+      <c r="A34" s="53"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="4" t="s">
         <v>65</v>
       </c>
@@ -4616,9 +4611,9 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="30"/>
+    <row r="35" spans="1:10" ht="17.25">
+      <c r="A35" s="53"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="4" t="s">
         <v>66</v>
       </c>
@@ -4636,9 +4631,9 @@
       </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
-      <c r="B36" s="30"/>
+    <row r="36" spans="1:10" ht="17.25">
+      <c r="A36" s="53"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="4" t="s">
         <v>67</v>
       </c>
@@ -4656,9 +4651,9 @@
       </c>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
-      <c r="B37" s="30"/>
+    <row r="37" spans="1:10" ht="17.25">
+      <c r="A37" s="53"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="4" t="s">
         <v>68</v>
       </c>
@@ -4676,9 +4671,9 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
-      <c r="B38" s="30"/>
+    <row r="38" spans="1:10" ht="17.25">
+      <c r="A38" s="53"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="4" t="s">
         <v>69</v>
       </c>
@@ -4696,9 +4691,9 @@
       </c>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="32"/>
-      <c r="B39" s="30"/>
+    <row r="39" spans="1:10" ht="17.25">
+      <c r="A39" s="53"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="4" t="s">
         <v>70</v>
       </c>
@@ -4716,9 +4711,9 @@
       </c>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
-      <c r="B40" s="30"/>
+    <row r="40" spans="1:10" ht="17.25">
+      <c r="A40" s="53"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
@@ -4736,9 +4731,9 @@
       </c>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="32"/>
-      <c r="B41" s="30"/>
+    <row r="41" spans="1:10" ht="17.25">
+      <c r="A41" s="53"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="4" t="s">
         <v>72</v>
       </c>
@@ -4756,9 +4751,9 @@
       </c>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="32"/>
-      <c r="B42" s="30"/>
+    <row r="42" spans="1:10" ht="17.25">
+      <c r="A42" s="53"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="4" t="s">
         <v>73</v>
       </c>
@@ -4776,9 +4771,9 @@
       </c>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
-      <c r="B43" s="30"/>
+    <row r="43" spans="1:10" ht="17.25">
+      <c r="A43" s="53"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="4" t="s">
         <v>74</v>
       </c>
@@ -4796,9 +4791,9 @@
       </c>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
-      <c r="B44" s="30"/>
+    <row r="44" spans="1:10" ht="17.25">
+      <c r="A44" s="53"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="4" t="s">
         <v>75</v>
       </c>
@@ -4816,9 +4811,9 @@
       </c>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
-      <c r="B45" s="30"/>
+    <row r="45" spans="1:10" ht="17.25">
+      <c r="A45" s="53"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="4" t="s">
         <v>76</v>
       </c>
@@ -4836,9 +4831,9 @@
       </c>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="32"/>
-      <c r="B46" s="30"/>
+    <row r="46" spans="1:10" ht="17.25">
+      <c r="A46" s="53"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="4" t="s">
         <v>77</v>
       </c>
@@ -4856,9 +4851,9 @@
       </c>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="30"/>
+    <row r="47" spans="1:10" ht="17.25">
+      <c r="A47" s="53"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="4" t="s">
         <v>78</v>
       </c>
@@ -4876,9 +4871,9 @@
       </c>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="32"/>
-      <c r="B48" s="30"/>
+    <row r="48" spans="1:10" ht="17.25">
+      <c r="A48" s="53"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="4" t="s">
         <v>79</v>
       </c>
@@ -4896,9 +4891,9 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="32"/>
-      <c r="B49" s="30"/>
+    <row r="49" spans="1:10" ht="17.25">
+      <c r="A49" s="53"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="4" t="s">
         <v>80</v>
       </c>
@@ -4916,9 +4911,9 @@
       </c>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="32"/>
-      <c r="B50" s="30"/>
+    <row r="50" spans="1:10" ht="17.25">
+      <c r="A50" s="53"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="4" t="s">
         <v>81</v>
       </c>
@@ -4936,9 +4931,9 @@
       </c>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="32"/>
-      <c r="B51" s="30"/>
+    <row r="51" spans="1:10" ht="17.25">
+      <c r="A51" s="53"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="4" t="s">
         <v>82</v>
       </c>
@@ -4956,9 +4951,9 @@
       </c>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="32"/>
-      <c r="B52" s="30"/>
+    <row r="52" spans="1:10" ht="17.25">
+      <c r="A52" s="53"/>
+      <c r="B52" s="51"/>
       <c r="C52" s="4" t="s">
         <v>83</v>
       </c>
@@ -4976,9 +4971,9 @@
       </c>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="32"/>
-      <c r="B53" s="30"/>
+    <row r="53" spans="1:10" ht="17.25">
+      <c r="A53" s="53"/>
+      <c r="B53" s="51"/>
       <c r="C53" s="4" t="s">
         <v>84</v>
       </c>
@@ -4996,9 +4991,9 @@
       </c>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
-      <c r="B54" s="30"/>
+    <row r="54" spans="1:10" ht="17.25">
+      <c r="A54" s="53"/>
+      <c r="B54" s="51"/>
       <c r="C54" s="4" t="s">
         <v>85</v>
       </c>
@@ -5016,9 +5011,9 @@
       </c>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="32"/>
-      <c r="B55" s="30"/>
+    <row r="55" spans="1:10" ht="17.25">
+      <c r="A55" s="53"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="4" t="s">
         <v>86</v>
       </c>
@@ -5036,9 +5031,9 @@
       </c>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="32"/>
-      <c r="B56" s="30"/>
+    <row r="56" spans="1:10" ht="17.25">
+      <c r="A56" s="53"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="4" t="s">
         <v>87</v>
       </c>
@@ -5056,9 +5051,9 @@
       </c>
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="32"/>
-      <c r="B57" s="30"/>
+    <row r="57" spans="1:10" ht="17.25">
+      <c r="A57" s="53"/>
+      <c r="B57" s="51"/>
       <c r="C57" s="4" t="s">
         <v>88</v>
       </c>
@@ -5076,9 +5071,9 @@
       </c>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A58" s="32"/>
-      <c r="B58" s="30"/>
+    <row r="58" spans="1:10" ht="17.25">
+      <c r="A58" s="53"/>
+      <c r="B58" s="51"/>
       <c r="C58" s="4" t="s">
         <v>89</v>
       </c>
@@ -5096,9 +5091,9 @@
       </c>
       <c r="J58" s="8"/>
     </row>
-    <row r="59" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="32"/>
-      <c r="B59" s="30"/>
+    <row r="59" spans="1:10" ht="17.25">
+      <c r="A59" s="53"/>
+      <c r="B59" s="51"/>
       <c r="C59" s="4" t="s">
         <v>90</v>
       </c>
@@ -5116,9 +5111,9 @@
       </c>
       <c r="J59" s="8"/>
     </row>
-    <row r="60" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="32"/>
-      <c r="B60" s="30"/>
+    <row r="60" spans="1:10" ht="17.25">
+      <c r="A60" s="53"/>
+      <c r="B60" s="51"/>
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
@@ -5136,9 +5131,9 @@
       </c>
       <c r="J60" s="8"/>
     </row>
-    <row r="61" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="32"/>
-      <c r="B61" s="30"/>
+    <row r="61" spans="1:10" ht="17.25">
+      <c r="A61" s="53"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="4" t="s">
         <v>92</v>
       </c>
@@ -5156,9 +5151,9 @@
       </c>
       <c r="J61" s="8"/>
     </row>
-    <row r="62" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A62" s="32"/>
-      <c r="B62" s="30"/>
+    <row r="62" spans="1:10" ht="17.25">
+      <c r="A62" s="53"/>
+      <c r="B62" s="51"/>
       <c r="C62" s="4" t="s">
         <v>93</v>
       </c>
@@ -5176,9 +5171,9 @@
       </c>
       <c r="J62" s="8"/>
     </row>
-    <row r="63" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="32"/>
-      <c r="B63" s="30"/>
+    <row r="63" spans="1:10" ht="17.25">
+      <c r="A63" s="53"/>
+      <c r="B63" s="51"/>
       <c r="C63" s="4" t="s">
         <v>94</v>
       </c>
@@ -5196,9 +5191,9 @@
       </c>
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="32"/>
-      <c r="B64" s="30"/>
+    <row r="64" spans="1:10" ht="17.25">
+      <c r="A64" s="53"/>
+      <c r="B64" s="51"/>
       <c r="C64" s="4" t="s">
         <v>95</v>
       </c>
@@ -5216,9 +5211,9 @@
       </c>
       <c r="J64" s="8"/>
     </row>
-    <row r="65" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="32"/>
-      <c r="B65" s="30"/>
+    <row r="65" spans="1:10" ht="17.25">
+      <c r="A65" s="53"/>
+      <c r="B65" s="51"/>
       <c r="C65" s="4" t="s">
         <v>96</v>
       </c>
@@ -5236,9 +5231,9 @@
       </c>
       <c r="J65" s="8"/>
     </row>
-    <row r="66" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
-      <c r="B66" s="34"/>
+    <row r="66" spans="1:10" ht="18" thickBot="1">
+      <c r="A66" s="54"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="10" t="s">
         <v>97</v>
       </c>
@@ -5256,11 +5251,11 @@
       </c>
       <c r="J66" s="11"/>
     </row>
-    <row r="67" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="31">
+    <row r="67" spans="1:10" ht="18" thickBot="1">
+      <c r="A67" s="52">
         <v>3</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="58" t="s">
         <v>99</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -5280,9 +5275,9 @@
       </c>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
-      <c r="B68" s="39"/>
+    <row r="68" spans="1:10" ht="18" thickBot="1">
+      <c r="A68" s="53"/>
+      <c r="B68" s="59"/>
       <c r="C68" s="7" t="s">
         <v>101</v>
       </c>
@@ -5300,9 +5295,9 @@
       </c>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="39"/>
+    <row r="69" spans="1:10" ht="18" thickBot="1">
+      <c r="A69" s="53"/>
+      <c r="B69" s="59"/>
       <c r="C69" s="7" t="s">
         <v>103</v>
       </c>
@@ -5320,9 +5315,9 @@
       </c>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
-      <c r="B70" s="39"/>
+    <row r="70" spans="1:10" ht="18" thickBot="1">
+      <c r="A70" s="53"/>
+      <c r="B70" s="59"/>
       <c r="C70" s="7" t="s">
         <v>104</v>
       </c>
@@ -5340,9 +5335,9 @@
       </c>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
-      <c r="B71" s="39"/>
+    <row r="71" spans="1:10" ht="18" thickBot="1">
+      <c r="A71" s="53"/>
+      <c r="B71" s="59"/>
       <c r="C71" s="7" t="s">
         <v>105</v>
       </c>
@@ -5360,9 +5355,9 @@
       </c>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="39"/>
+    <row r="72" spans="1:10" ht="18" thickBot="1">
+      <c r="A72" s="53"/>
+      <c r="B72" s="59"/>
       <c r="C72" s="7" t="s">
         <v>106</v>
       </c>
@@ -5380,9 +5375,9 @@
       </c>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="32"/>
-      <c r="B73" s="39"/>
+    <row r="73" spans="1:10" ht="18" thickBot="1">
+      <c r="A73" s="53"/>
+      <c r="B73" s="59"/>
       <c r="C73" s="7" t="s">
         <v>107</v>
       </c>
@@ -5400,9 +5395,9 @@
       </c>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="32"/>
-      <c r="B74" s="39"/>
+    <row r="74" spans="1:10" ht="18" thickBot="1">
+      <c r="A74" s="53"/>
+      <c r="B74" s="59"/>
       <c r="C74" s="7" t="s">
         <v>108</v>
       </c>
@@ -5420,9 +5415,9 @@
       </c>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
-      <c r="B75" s="39"/>
+    <row r="75" spans="1:10" ht="18" thickBot="1">
+      <c r="A75" s="53"/>
+      <c r="B75" s="59"/>
       <c r="C75" s="7" t="s">
         <v>109</v>
       </c>
@@ -5440,9 +5435,9 @@
       </c>
       <c r="J75" s="8"/>
     </row>
-    <row r="76" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="39"/>
+    <row r="76" spans="1:10" ht="18" thickBot="1">
+      <c r="A76" s="53"/>
+      <c r="B76" s="59"/>
       <c r="C76" s="7" t="s">
         <v>110</v>
       </c>
@@ -5460,9 +5455,9 @@
       </c>
       <c r="J76" s="8"/>
     </row>
-    <row r="77" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="39"/>
+    <row r="77" spans="1:10" ht="18" thickBot="1">
+      <c r="A77" s="53"/>
+      <c r="B77" s="59"/>
       <c r="C77" s="7" t="s">
         <v>111</v>
       </c>
@@ -5480,9 +5475,9 @@
       </c>
       <c r="J77" s="8"/>
     </row>
-    <row r="78" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
-      <c r="B78" s="39"/>
+    <row r="78" spans="1:10" ht="18" thickBot="1">
+      <c r="A78" s="53"/>
+      <c r="B78" s="59"/>
       <c r="C78" s="7" t="s">
         <v>112</v>
       </c>
@@ -5500,9 +5495,9 @@
       </c>
       <c r="J78" s="8"/>
     </row>
-    <row r="79" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="32"/>
-      <c r="B79" s="39"/>
+    <row r="79" spans="1:10" ht="18" thickBot="1">
+      <c r="A79" s="53"/>
+      <c r="B79" s="59"/>
       <c r="C79" s="7" t="s">
         <v>113</v>
       </c>
@@ -5520,9 +5515,9 @@
       </c>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
-      <c r="B80" s="40"/>
+    <row r="80" spans="1:10" ht="18" thickBot="1">
+      <c r="A80" s="54"/>
+      <c r="B80" s="60"/>
       <c r="C80" s="10" t="s">
         <v>114</v>
       </c>
@@ -5540,11 +5535,11 @@
       </c>
       <c r="J80" s="8"/>
     </row>
-    <row r="81" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="35">
+    <row r="81" spans="1:10" ht="18" thickBot="1">
+      <c r="A81" s="45">
         <v>4</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="56" t="s">
         <v>192</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -5570,9 +5565,9 @@
       </c>
       <c r="J81" s="8"/>
     </row>
-    <row r="82" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
-      <c r="B82" s="36"/>
+    <row r="82" spans="1:10" ht="18" thickBot="1">
+      <c r="A82" s="45"/>
+      <c r="B82" s="56"/>
       <c r="C82" s="4" t="s">
         <v>176</v>
       </c>
@@ -5596,9 +5591,9 @@
       </c>
       <c r="J82" s="8"/>
     </row>
-    <row r="83" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="35"/>
-      <c r="B83" s="36"/>
+    <row r="83" spans="1:10" ht="18" thickBot="1">
+      <c r="A83" s="45"/>
+      <c r="B83" s="56"/>
       <c r="C83" s="4" t="s">
         <v>179</v>
       </c>
@@ -5622,9 +5617,9 @@
       </c>
       <c r="J83" s="8"/>
     </row>
-    <row r="84" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="35"/>
-      <c r="B84" s="36"/>
+    <row r="84" spans="1:10" ht="18" thickBot="1">
+      <c r="A84" s="45"/>
+      <c r="B84" s="56"/>
       <c r="C84" s="4" t="s">
         <v>182</v>
       </c>
@@ -5648,9 +5643,9 @@
       </c>
       <c r="J84" s="8"/>
     </row>
-    <row r="85" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="35"/>
-      <c r="B85" s="36"/>
+    <row r="85" spans="1:10" ht="18" thickBot="1">
+      <c r="A85" s="45"/>
+      <c r="B85" s="56"/>
       <c r="C85" s="4" t="s">
         <v>185</v>
       </c>
@@ -5674,9 +5669,9 @@
       </c>
       <c r="J85" s="8"/>
     </row>
-    <row r="86" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
-      <c r="B86" s="36"/>
+    <row r="86" spans="1:10" ht="18" thickBot="1">
+      <c r="A86" s="45"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="4" t="s">
         <v>188</v>
       </c>
@@ -5700,9 +5695,9 @@
       </c>
       <c r="J86" s="8"/>
     </row>
-    <row r="87" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
-      <c r="B87" s="36"/>
+    <row r="87" spans="1:10" ht="18" thickBot="1">
+      <c r="A87" s="45"/>
+      <c r="B87" s="56"/>
       <c r="C87" s="4" t="s">
         <v>190</v>
       </c>
@@ -5726,9 +5721,9 @@
       </c>
       <c r="J87" s="8"/>
     </row>
-    <row r="88" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="35"/>
-      <c r="B88" s="37"/>
+    <row r="88" spans="1:10" ht="18" thickBot="1">
+      <c r="A88" s="45"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="4" t="s">
         <v>7</v>
       </c>
@@ -5752,11 +5747,11 @@
       </c>
       <c r="J88" s="8"/>
     </row>
-    <row r="89" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="31">
+    <row r="89" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A89" s="52">
         <v>5</v>
       </c>
-      <c r="B89" s="29" t="s">
+      <c r="B89" s="50" t="s">
         <v>206</v>
       </c>
       <c r="C89" s="16" t="s">
@@ -5776,9 +5771,9 @@
       </c>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="30"/>
+    <row r="90" spans="1:10" ht="18" thickBot="1">
+      <c r="A90" s="53"/>
+      <c r="B90" s="51"/>
       <c r="C90" s="16" t="s">
         <v>209</v>
       </c>
@@ -5796,9 +5791,9 @@
       </c>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="30"/>
+    <row r="91" spans="1:10" ht="18" thickBot="1">
+      <c r="A91" s="53"/>
+      <c r="B91" s="51"/>
       <c r="C91" s="16" t="s">
         <v>210</v>
       </c>
@@ -5816,9 +5811,9 @@
       </c>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="30"/>
+    <row r="92" spans="1:10" ht="18" thickBot="1">
+      <c r="A92" s="53"/>
+      <c r="B92" s="51"/>
       <c r="C92" s="16" t="s">
         <v>211</v>
       </c>
@@ -5836,9 +5831,9 @@
       </c>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
-      <c r="B93" s="30"/>
+    <row r="93" spans="1:10" ht="18" thickBot="1">
+      <c r="A93" s="53"/>
+      <c r="B93" s="51"/>
       <c r="C93" s="16" t="s">
         <v>211</v>
       </c>
@@ -5856,9 +5851,9 @@
       </c>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
-      <c r="B94" s="30"/>
+    <row r="94" spans="1:10" ht="18" thickBot="1">
+      <c r="A94" s="53"/>
+      <c r="B94" s="51"/>
       <c r="C94" s="16" t="s">
         <v>212</v>
       </c>
@@ -5876,9 +5871,9 @@
       </c>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
-      <c r="B95" s="30"/>
+    <row r="95" spans="1:10" ht="18" thickBot="1">
+      <c r="A95" s="53"/>
+      <c r="B95" s="51"/>
       <c r="C95" s="16" t="s">
         <v>212</v>
       </c>
@@ -5896,9 +5891,9 @@
       </c>
       <c r="J95" s="8"/>
     </row>
-    <row r="96" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="32"/>
-      <c r="B96" s="30"/>
+    <row r="96" spans="1:10" ht="18" thickBot="1">
+      <c r="A96" s="53"/>
+      <c r="B96" s="51"/>
       <c r="C96" s="16" t="s">
         <v>212</v>
       </c>
@@ -5916,9 +5911,9 @@
       </c>
       <c r="J96" s="8"/>
     </row>
-    <row r="97" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
-      <c r="B97" s="30"/>
+    <row r="97" spans="1:10" ht="18" thickBot="1">
+      <c r="A97" s="53"/>
+      <c r="B97" s="51"/>
       <c r="C97" s="16" t="s">
         <v>213</v>
       </c>
@@ -5936,9 +5931,9 @@
       </c>
       <c r="J97" s="8"/>
     </row>
-    <row r="98" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="32"/>
-      <c r="B98" s="30"/>
+    <row r="98" spans="1:10" ht="18" thickBot="1">
+      <c r="A98" s="53"/>
+      <c r="B98" s="51"/>
       <c r="C98" s="16" t="s">
         <v>214</v>
       </c>
@@ -5956,9 +5951,9 @@
       </c>
       <c r="J98" s="8"/>
     </row>
-    <row r="99" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="32"/>
-      <c r="B99" s="30"/>
+    <row r="99" spans="1:10" ht="18" thickBot="1">
+      <c r="A99" s="53"/>
+      <c r="B99" s="51"/>
       <c r="C99" s="16" t="s">
         <v>215</v>
       </c>
@@ -5976,9 +5971,9 @@
       </c>
       <c r="J99" s="8"/>
     </row>
-    <row r="100" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="32"/>
-      <c r="B100" s="30"/>
+    <row r="100" spans="1:10" ht="18" thickBot="1">
+      <c r="A100" s="53"/>
+      <c r="B100" s="51"/>
       <c r="C100" s="16" t="s">
         <v>216</v>
       </c>
@@ -5996,9 +5991,9 @@
       </c>
       <c r="J100" s="8"/>
     </row>
-    <row r="101" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="32"/>
-      <c r="B101" s="30"/>
+    <row r="101" spans="1:10" ht="18" thickBot="1">
+      <c r="A101" s="53"/>
+      <c r="B101" s="51"/>
       <c r="C101" s="16" t="s">
         <v>217</v>
       </c>
@@ -6016,9 +6011,9 @@
       </c>
       <c r="J101" s="8"/>
     </row>
-    <row r="102" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="32"/>
-      <c r="B102" s="30"/>
+    <row r="102" spans="1:10" ht="18" thickBot="1">
+      <c r="A102" s="53"/>
+      <c r="B102" s="51"/>
       <c r="C102" s="16" t="s">
         <v>218</v>
       </c>
@@ -6036,9 +6031,9 @@
       </c>
       <c r="J102" s="8"/>
     </row>
-    <row r="103" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="32"/>
-      <c r="B103" s="30"/>
+    <row r="103" spans="1:10" ht="18" thickBot="1">
+      <c r="A103" s="53"/>
+      <c r="B103" s="51"/>
       <c r="C103" s="16" t="s">
         <v>219</v>
       </c>
@@ -6056,9 +6051,9 @@
       </c>
       <c r="J103" s="8"/>
     </row>
-    <row r="104" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A104" s="32"/>
-      <c r="B104" s="30"/>
+    <row r="104" spans="1:10" ht="17.25">
+      <c r="A104" s="53"/>
+      <c r="B104" s="51"/>
       <c r="C104" s="25" t="s">
         <v>220</v>
       </c>
@@ -6076,9 +6071,9 @@
       </c>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="32"/>
-      <c r="B105" s="30"/>
+    <row r="105" spans="1:10" ht="18" thickBot="1">
+      <c r="A105" s="53"/>
+      <c r="B105" s="51"/>
       <c r="C105" s="19" t="s">
         <v>221</v>
       </c>
@@ -6096,9 +6091,9 @@
       </c>
       <c r="J105" s="24"/>
     </row>
-    <row r="106" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="32"/>
-      <c r="B106" s="30"/>
+    <row r="106" spans="1:10" ht="18" thickBot="1">
+      <c r="A106" s="53"/>
+      <c r="B106" s="51"/>
       <c r="C106" s="18" t="s">
         <v>222</v>
       </c>
@@ -6116,9 +6111,9 @@
       </c>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="32"/>
-      <c r="B107" s="30"/>
+    <row r="107" spans="1:10" ht="18" thickBot="1">
+      <c r="A107" s="53"/>
+      <c r="B107" s="51"/>
       <c r="C107" s="18" t="s">
         <v>223</v>
       </c>
@@ -6136,9 +6131,9 @@
       </c>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="32"/>
-      <c r="B108" s="30"/>
+    <row r="108" spans="1:10" ht="18" thickBot="1">
+      <c r="A108" s="53"/>
+      <c r="B108" s="51"/>
       <c r="C108" s="18" t="s">
         <v>224</v>
       </c>
@@ -6156,9 +6151,9 @@
       </c>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="32"/>
-      <c r="B109" s="30"/>
+    <row r="109" spans="1:10" ht="18" thickBot="1">
+      <c r="A109" s="53"/>
+      <c r="B109" s="51"/>
       <c r="C109" s="18" t="s">
         <v>225</v>
       </c>
@@ -6176,9 +6171,9 @@
       </c>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="32"/>
-      <c r="B110" s="30"/>
+    <row r="110" spans="1:10" ht="18" thickBot="1">
+      <c r="A110" s="53"/>
+      <c r="B110" s="51"/>
       <c r="C110" s="18" t="s">
         <v>226</v>
       </c>
@@ -6196,9 +6191,9 @@
       </c>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="32"/>
-      <c r="B111" s="30"/>
+    <row r="111" spans="1:10" ht="18" thickBot="1">
+      <c r="A111" s="53"/>
+      <c r="B111" s="51"/>
       <c r="C111" s="18" t="s">
         <v>227</v>
       </c>
@@ -6216,9 +6211,9 @@
       </c>
       <c r="J111" s="8"/>
     </row>
-    <row r="112" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="32"/>
-      <c r="B112" s="30"/>
+    <row r="112" spans="1:10" ht="18" thickBot="1">
+      <c r="A112" s="53"/>
+      <c r="B112" s="51"/>
       <c r="C112" s="18" t="s">
         <v>228</v>
       </c>
@@ -6236,9 +6231,9 @@
       </c>
       <c r="J112" s="8"/>
     </row>
-    <row r="113" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="32"/>
-      <c r="B113" s="30"/>
+    <row r="113" spans="1:10" ht="18" thickBot="1">
+      <c r="A113" s="53"/>
+      <c r="B113" s="51"/>
       <c r="C113" s="18" t="s">
         <v>229</v>
       </c>
@@ -6256,9 +6251,9 @@
       </c>
       <c r="J113" s="8"/>
     </row>
-    <row r="114" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="32"/>
-      <c r="B114" s="30"/>
+    <row r="114" spans="1:10" ht="18" thickBot="1">
+      <c r="A114" s="53"/>
+      <c r="B114" s="51"/>
       <c r="C114" s="18" t="s">
         <v>230</v>
       </c>
@@ -6276,9 +6271,9 @@
       </c>
       <c r="J114" s="8"/>
     </row>
-    <row r="115" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="32"/>
-      <c r="B115" s="30"/>
+    <row r="115" spans="1:10" ht="18" thickBot="1">
+      <c r="A115" s="53"/>
+      <c r="B115" s="51"/>
       <c r="C115" s="18" t="s">
         <v>231</v>
       </c>
@@ -6296,10 +6291,10 @@
       </c>
       <c r="J115" s="8"/>
     </row>
-    <row r="116" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="32"/>
-      <c r="B116" s="30"/>
-      <c r="C116" s="63" t="s">
+    <row r="116" spans="1:10" ht="18" thickBot="1">
+      <c r="A116" s="53"/>
+      <c r="B116" s="51"/>
+      <c r="C116" s="39" t="s">
         <v>225</v>
       </c>
       <c r="D116" s="9"/>
@@ -6311,44 +6306,44 @@
       <c r="H116" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="I116" s="64">
+      <c r="I116" s="40">
         <v>43333</v>
       </c>
       <c r="J116" s="8"/>
     </row>
-    <row r="117" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A117" s="61">
+    <row r="117" spans="1:10" ht="17.25">
+      <c r="A117" s="41">
         <v>6</v>
       </c>
-      <c r="B117" s="54" t="s">
+      <c r="B117" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="C117" s="55" t="s">
+      <c r="C117" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="D117" s="56" t="s">
+      <c r="D117" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="E117" s="56" t="s">
+      <c r="E117" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="F117" s="56" t="s">
+      <c r="F117" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="G117" s="56" t="s">
+      <c r="G117" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="H117" s="56" t="s">
+      <c r="H117" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I117" s="57">
+      <c r="I117" s="36">
         <v>43326</v>
       </c>
-      <c r="J117" s="58"/>
-    </row>
-    <row r="118" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="J117" s="37"/>
+    </row>
+    <row r="118" spans="1:10" ht="17.25">
       <c r="A118" s="42"/>
-      <c r="B118" s="35"/>
+      <c r="B118" s="45"/>
       <c r="C118" s="17" t="s">
         <v>382</v>
       </c>
@@ -6372,9 +6367,9 @@
       </c>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" ht="17.25">
       <c r="A119" s="42"/>
-      <c r="B119" s="35"/>
+      <c r="B119" s="45"/>
       <c r="C119" s="17" t="s">
         <v>384</v>
       </c>
@@ -6398,9 +6393,9 @@
       </c>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="17.25">
       <c r="A120" s="42"/>
-      <c r="B120" s="35"/>
+      <c r="B120" s="45"/>
       <c r="C120" s="17" t="s">
         <v>387</v>
       </c>
@@ -6424,9 +6419,9 @@
       </c>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="17.25">
       <c r="A121" s="42"/>
-      <c r="B121" s="35"/>
+      <c r="B121" s="45"/>
       <c r="C121" s="17" t="s">
         <v>391</v>
       </c>
@@ -6450,9 +6445,9 @@
       </c>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="17.25">
       <c r="A122" s="42"/>
-      <c r="B122" s="35"/>
+      <c r="B122" s="45"/>
       <c r="C122" s="17" t="s">
         <v>395</v>
       </c>
@@ -6476,9 +6471,9 @@
       </c>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" ht="17.25">
       <c r="A123" s="42"/>
-      <c r="B123" s="35"/>
+      <c r="B123" s="45"/>
       <c r="C123" s="17" t="s">
         <v>397</v>
       </c>
@@ -6502,9 +6497,9 @@
       </c>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="17.25">
       <c r="A124" s="42"/>
-      <c r="B124" s="35"/>
+      <c r="B124" s="45"/>
       <c r="C124" s="17" t="s">
         <v>400</v>
       </c>
@@ -6528,9 +6523,9 @@
       </c>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="17.25">
       <c r="A125" s="42"/>
-      <c r="B125" s="35"/>
+      <c r="B125" s="45"/>
       <c r="C125" s="17" t="s">
         <v>402</v>
       </c>
@@ -6554,9 +6549,9 @@
       </c>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="17.25">
       <c r="A126" s="42"/>
-      <c r="B126" s="35"/>
+      <c r="B126" s="45"/>
       <c r="C126" s="17" t="s">
         <v>405</v>
       </c>
@@ -6580,9 +6575,9 @@
       </c>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="17.25">
       <c r="A127" s="42"/>
-      <c r="B127" s="35"/>
+      <c r="B127" s="45"/>
       <c r="C127" s="17" t="s">
         <v>407</v>
       </c>
@@ -6606,9 +6601,9 @@
       </c>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="17.25">
       <c r="A128" s="42"/>
-      <c r="B128" s="35"/>
+      <c r="B128" s="45"/>
       <c r="C128" s="17" t="s">
         <v>409</v>
       </c>
@@ -6632,9 +6627,9 @@
       </c>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="17.25">
       <c r="A129" s="42"/>
-      <c r="B129" s="35"/>
+      <c r="B129" s="45"/>
       <c r="C129" s="17" t="s">
         <v>413</v>
       </c>
@@ -6658,9 +6653,9 @@
       </c>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="17.25">
       <c r="A130" s="42"/>
-      <c r="B130" s="35"/>
+      <c r="B130" s="45"/>
       <c r="C130" s="17" t="s">
         <v>416</v>
       </c>
@@ -6684,9 +6679,9 @@
       </c>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="17.25">
       <c r="A131" s="42"/>
-      <c r="B131" s="35"/>
+      <c r="B131" s="45"/>
       <c r="C131" s="17" t="s">
         <v>418</v>
       </c>
@@ -6710,9 +6705,9 @@
       </c>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="17.25">
       <c r="A132" s="42"/>
-      <c r="B132" s="35"/>
+      <c r="B132" s="45"/>
       <c r="C132" s="17" t="s">
         <v>421</v>
       </c>
@@ -6736,9 +6731,9 @@
       </c>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" ht="17.25">
       <c r="A133" s="42"/>
-      <c r="B133" s="35"/>
+      <c r="B133" s="45"/>
       <c r="C133" s="17" t="s">
         <v>423</v>
       </c>
@@ -6762,9 +6757,9 @@
       </c>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="17.25">
       <c r="A134" s="42"/>
-      <c r="B134" s="35"/>
+      <c r="B134" s="45"/>
       <c r="C134" s="17" t="s">
         <v>426</v>
       </c>
@@ -6788,9 +6783,9 @@
       </c>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" ht="17.25">
       <c r="A135" s="42"/>
-      <c r="B135" s="35"/>
+      <c r="B135" s="45"/>
       <c r="C135" s="17" t="s">
         <v>299</v>
       </c>
@@ -6814,9 +6809,9 @@
       </c>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="17.25">
       <c r="A136" s="42"/>
-      <c r="B136" s="35"/>
+      <c r="B136" s="45"/>
       <c r="C136" s="17" t="s">
         <v>301</v>
       </c>
@@ -6840,9 +6835,9 @@
       </c>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" ht="17.25">
       <c r="A137" s="42"/>
-      <c r="B137" s="35"/>
+      <c r="B137" s="45"/>
       <c r="C137" s="17" t="s">
         <v>304</v>
       </c>
@@ -6866,9 +6861,9 @@
       </c>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="17.25">
       <c r="A138" s="42"/>
-      <c r="B138" s="35"/>
+      <c r="B138" s="45"/>
       <c r="C138" s="17" t="s">
         <v>306</v>
       </c>
@@ -6892,9 +6887,9 @@
       </c>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" ht="17.25">
       <c r="A139" s="42"/>
-      <c r="B139" s="35"/>
+      <c r="B139" s="45"/>
       <c r="C139" s="17" t="s">
         <v>308</v>
       </c>
@@ -6918,9 +6913,9 @@
       </c>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" ht="17.25">
       <c r="A140" s="42"/>
-      <c r="B140" s="35"/>
+      <c r="B140" s="45"/>
       <c r="C140" s="17" t="s">
         <v>310</v>
       </c>
@@ -6944,9 +6939,9 @@
       </c>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" ht="17.25">
       <c r="A141" s="42"/>
-      <c r="B141" s="35"/>
+      <c r="B141" s="45"/>
       <c r="C141" s="17" t="s">
         <v>312</v>
       </c>
@@ -6970,9 +6965,9 @@
       </c>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="17.25">
       <c r="A142" s="42"/>
-      <c r="B142" s="35"/>
+      <c r="B142" s="45"/>
       <c r="C142" s="17" t="s">
         <v>313</v>
       </c>
@@ -6996,8 +6991,8 @@
       </c>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="45"/>
+    <row r="143" spans="1:10" ht="18" thickBot="1">
+      <c r="A143" s="43"/>
       <c r="B143" s="46"/>
       <c r="C143" s="10" t="s">
         <v>240</v>
@@ -7011,13 +7006,13 @@
       <c r="F143" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="G143" s="47" t="s">
+      <c r="G143" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="H143" s="47" t="s">
+      <c r="H143" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="I143" s="48">
+      <c r="I143" s="29">
         <v>43326</v>
       </c>
       <c r="J143" s="11"/>
@@ -7051,20 +7046,20 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="7.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7096,11 +7091,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="35">
+    <row r="2" spans="1:10" ht="17.25">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="45" t="s">
         <v>118</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -7122,9 +7117,9 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
+    <row r="3" spans="1:10" ht="17.25">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="4" t="s">
         <v>120</v>
       </c>
@@ -7144,9 +7139,9 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+    <row r="4" spans="1:10" ht="17.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="4" t="s">
         <v>122</v>
       </c>
@@ -7166,9 +7161,9 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
+    <row r="5" spans="1:10" ht="17.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="4" t="s">
         <v>124</v>
       </c>
@@ -7188,9 +7183,9 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+    <row r="6" spans="1:10" ht="17.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="4" t="s">
         <v>125</v>
       </c>
@@ -7210,9 +7205,9 @@
       </c>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
+    <row r="7" spans="1:10" ht="17.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="4" t="s">
         <v>127</v>
       </c>
@@ -7232,9 +7227,9 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
+    <row r="8" spans="1:10" ht="17.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="4" t="s">
         <v>129</v>
       </c>
@@ -7254,9 +7249,9 @@
       </c>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
+    <row r="9" spans="1:10" ht="17.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="4" t="s">
         <v>130</v>
       </c>
@@ -7276,9 +7271,9 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
+    <row r="10" spans="1:10" ht="17.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="4" t="s">
         <v>131</v>
       </c>
@@ -7298,9 +7293,9 @@
       </c>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
+    <row r="11" spans="1:10" ht="17.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="4" t="s">
         <v>132</v>
       </c>
@@ -7320,9 +7315,9 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
+    <row r="12" spans="1:10" ht="17.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="4" t="s">
         <v>134</v>
       </c>
@@ -7342,9 +7337,9 @@
       </c>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
+    <row r="13" spans="1:10" ht="17.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="4" t="s">
         <v>135</v>
       </c>
@@ -7364,9 +7359,9 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
+    <row r="14" spans="1:10" ht="17.25">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="4" t="s">
         <v>136</v>
       </c>
@@ -7386,9 +7381,9 @@
       </c>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
+    <row r="15" spans="1:10" ht="17.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="4" t="s">
         <v>137</v>
       </c>
@@ -7408,9 +7403,9 @@
       </c>
       <c r="J15" s="15"/>
     </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
+    <row r="16" spans="1:10" ht="17.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="4" t="s">
         <v>139</v>
       </c>
@@ -7430,9 +7425,9 @@
       </c>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
+    <row r="17" spans="1:10" ht="17.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="4" t="s">
         <v>140</v>
       </c>
@@ -7452,9 +7447,9 @@
       </c>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
+    <row r="18" spans="1:10" ht="18" thickBot="1">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="7" t="s">
         <v>142</v>
       </c>
@@ -7463,50 +7458,50 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="51">
-        <v>43333</v>
-      </c>
-      <c r="J18" s="52"/>
-    </row>
-    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="61">
+      <c r="I18" s="32">
+        <v>43333</v>
+      </c>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.25">
+      <c r="A19" s="41">
         <v>2</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="56" t="s">
+      <c r="H19" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="I19" s="57">
-        <v>43333</v>
-      </c>
-      <c r="J19" s="58"/>
-    </row>
-    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="I19" s="36">
+        <v>43333</v>
+      </c>
+      <c r="J19" s="37"/>
+    </row>
+    <row r="20" spans="1:10" ht="17.25">
       <c r="A20" s="42"/>
-      <c r="B20" s="35"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="17" t="s">
         <v>148</v>
       </c>
@@ -7530,9 +7525,9 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="17.25">
       <c r="A21" s="42"/>
-      <c r="B21" s="35"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="17" t="s">
         <v>152</v>
       </c>
@@ -7556,9 +7551,9 @@
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="17.25">
       <c r="A22" s="42"/>
-      <c r="B22" s="35"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="17" t="s">
         <v>156</v>
       </c>
@@ -7582,9 +7577,9 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="17.25">
       <c r="A23" s="42"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="17" t="s">
         <v>158</v>
       </c>
@@ -7608,9 +7603,9 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="17.25">
       <c r="A24" s="42"/>
-      <c r="B24" s="35"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="17" t="s">
         <v>131</v>
       </c>
@@ -7634,9 +7629,9 @@
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="17.25">
       <c r="A25" s="42"/>
-      <c r="B25" s="35"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="17" t="s">
         <v>163</v>
       </c>
@@ -7660,9 +7655,9 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="17.25">
       <c r="A26" s="42"/>
-      <c r="B26" s="35"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="17" t="s">
         <v>167</v>
       </c>
@@ -7686,9 +7681,9 @@
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="17.25">
       <c r="A27" s="42"/>
-      <c r="B27" s="35"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="17" t="s">
         <v>170</v>
       </c>
@@ -7712,8 +7707,8 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+    <row r="28" spans="1:10" ht="18" thickBot="1">
+      <c r="A28" s="43"/>
       <c r="B28" s="46"/>
       <c r="C28" s="10" t="s">
         <v>7</v>
@@ -7727,50 +7722,50 @@
       <c r="F28" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="47" t="s">
+      <c r="H28" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="62">
-        <v>43333</v>
-      </c>
-      <c r="J28" s="49"/>
-    </row>
-    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="53">
+      <c r="I28" s="38">
+        <v>43333</v>
+      </c>
+      <c r="J28" s="30"/>
+    </row>
+    <row r="29" spans="1:10" ht="17.25">
+      <c r="A29" s="62">
         <v>3</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="G29" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="H29" s="56" t="s">
+      <c r="H29" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I29" s="57">
+      <c r="I29" s="36">
         <v>43326</v>
       </c>
-      <c r="J29" s="58"/>
-    </row>
-    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="59"/>
-      <c r="B30" s="35"/>
+      <c r="J29" s="37"/>
+    </row>
+    <row r="30" spans="1:10" ht="17.25">
+      <c r="A30" s="63"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="17" t="s">
         <v>248</v>
       </c>
@@ -7794,9 +7789,9 @@
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="59"/>
-      <c r="B31" s="35"/>
+    <row r="31" spans="1:10" ht="17.25">
+      <c r="A31" s="63"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="17" t="s">
         <v>250</v>
       </c>
@@ -7820,9 +7815,9 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
-      <c r="B32" s="35"/>
+    <row r="32" spans="1:10" ht="17.25">
+      <c r="A32" s="63"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="17" t="s">
         <v>252</v>
       </c>
@@ -7846,9 +7841,9 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="59"/>
-      <c r="B33" s="35"/>
+    <row r="33" spans="1:10" ht="17.25">
+      <c r="A33" s="63"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="17" t="s">
         <v>254</v>
       </c>
@@ -7872,9 +7867,9 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="59"/>
-      <c r="B34" s="35"/>
+    <row r="34" spans="1:10" ht="17.25">
+      <c r="A34" s="63"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="17" t="s">
         <v>256</v>
       </c>
@@ -7898,9 +7893,9 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="59"/>
-      <c r="B35" s="35"/>
+    <row r="35" spans="1:10" ht="17.25">
+      <c r="A35" s="63"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="17" t="s">
         <v>259</v>
       </c>
@@ -7924,9 +7919,9 @@
       </c>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
-      <c r="B36" s="35"/>
+    <row r="36" spans="1:10" ht="17.25">
+      <c r="A36" s="63"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="17" t="s">
         <v>261</v>
       </c>
@@ -7950,9 +7945,9 @@
       </c>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="59"/>
-      <c r="B37" s="35"/>
+    <row r="37" spans="1:10" ht="17.25">
+      <c r="A37" s="63"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="17" t="s">
         <v>264</v>
       </c>
@@ -7976,9 +7971,9 @@
       </c>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="59"/>
-      <c r="B38" s="35"/>
+    <row r="38" spans="1:10" ht="17.25">
+      <c r="A38" s="63"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="17" t="s">
         <v>268</v>
       </c>
@@ -8002,9 +7997,9 @@
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="59"/>
-      <c r="B39" s="35"/>
+    <row r="39" spans="1:10" ht="17.25">
+      <c r="A39" s="63"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="17" t="s">
         <v>270</v>
       </c>
@@ -8028,9 +8023,9 @@
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
-      <c r="B40" s="35"/>
+    <row r="40" spans="1:10" ht="17.25">
+      <c r="A40" s="63"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="17" t="s">
         <v>273</v>
       </c>
@@ -8054,9 +8049,9 @@
       </c>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="59"/>
-      <c r="B41" s="35"/>
+    <row r="41" spans="1:10" ht="17.25">
+      <c r="A41" s="63"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="17" t="s">
         <v>277</v>
       </c>
@@ -8080,9 +8075,9 @@
       </c>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="59"/>
-      <c r="B42" s="35"/>
+    <row r="42" spans="1:10" ht="17.25">
+      <c r="A42" s="63"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="17" t="s">
         <v>281</v>
       </c>
@@ -8106,9 +8101,9 @@
       </c>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="59"/>
-      <c r="B43" s="35"/>
+    <row r="43" spans="1:10" ht="17.25">
+      <c r="A43" s="63"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="17" t="s">
         <v>283</v>
       </c>
@@ -8132,9 +8127,9 @@
       </c>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
-      <c r="B44" s="35"/>
+    <row r="44" spans="1:10" ht="17.25">
+      <c r="A44" s="63"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="17" t="s">
         <v>286</v>
       </c>
@@ -8158,9 +8153,9 @@
       </c>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="59"/>
-      <c r="B45" s="35"/>
+    <row r="45" spans="1:10" ht="17.25">
+      <c r="A45" s="63"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="17" t="s">
         <v>287</v>
       </c>
@@ -8184,9 +8179,9 @@
       </c>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="59"/>
-      <c r="B46" s="35"/>
+    <row r="46" spans="1:10" ht="17.25">
+      <c r="A46" s="63"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="17" t="s">
         <v>290</v>
       </c>
@@ -8210,9 +8205,9 @@
       </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="59"/>
-      <c r="B47" s="35"/>
+    <row r="47" spans="1:10" ht="17.25">
+      <c r="A47" s="63"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="17" t="s">
         <v>292</v>
       </c>
@@ -8236,9 +8231,9 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="59"/>
-      <c r="B48" s="35"/>
+    <row r="48" spans="1:10" ht="17.25">
+      <c r="A48" s="63"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="17" t="s">
         <v>294</v>
       </c>
@@ -8262,9 +8257,9 @@
       </c>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="59"/>
-      <c r="B49" s="35"/>
+    <row r="49" spans="1:10" ht="17.25">
+      <c r="A49" s="63"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="17" t="s">
         <v>296</v>
       </c>
@@ -8288,9 +8283,9 @@
       </c>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="59"/>
-      <c r="B50" s="35"/>
+    <row r="50" spans="1:10" ht="17.25">
+      <c r="A50" s="63"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="17" t="s">
         <v>297</v>
       </c>
@@ -8314,9 +8309,9 @@
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="59"/>
-      <c r="B51" s="35"/>
+    <row r="51" spans="1:10" ht="17.25">
+      <c r="A51" s="63"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="17" t="s">
         <v>299</v>
       </c>
@@ -8340,9 +8335,9 @@
       </c>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="59"/>
-      <c r="B52" s="35"/>
+    <row r="52" spans="1:10" ht="17.25">
+      <c r="A52" s="63"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="17" t="s">
         <v>301</v>
       </c>
@@ -8366,9 +8361,9 @@
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="59"/>
-      <c r="B53" s="35"/>
+    <row r="53" spans="1:10" ht="17.25">
+      <c r="A53" s="63"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="17" t="s">
         <v>304</v>
       </c>
@@ -8392,9 +8387,9 @@
       </c>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="59"/>
-      <c r="B54" s="35"/>
+    <row r="54" spans="1:10" ht="17.25">
+      <c r="A54" s="63"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="17" t="s">
         <v>306</v>
       </c>
@@ -8418,9 +8413,9 @@
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="59"/>
-      <c r="B55" s="35"/>
+    <row r="55" spans="1:10" ht="17.25">
+      <c r="A55" s="63"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="17" t="s">
         <v>308</v>
       </c>
@@ -8444,9 +8439,9 @@
       </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="59"/>
-      <c r="B56" s="35"/>
+    <row r="56" spans="1:10" ht="17.25">
+      <c r="A56" s="63"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="17" t="s">
         <v>310</v>
       </c>
@@ -8470,9 +8465,9 @@
       </c>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="59"/>
-      <c r="B57" s="35"/>
+    <row r="57" spans="1:10" ht="17.25">
+      <c r="A57" s="63"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="17" t="s">
         <v>312</v>
       </c>
@@ -8496,9 +8491,9 @@
       </c>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A58" s="59"/>
-      <c r="B58" s="35"/>
+    <row r="58" spans="1:10" ht="17.25">
+      <c r="A58" s="63"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="17" t="s">
         <v>313</v>
       </c>
@@ -8522,8 +8517,8 @@
       </c>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="60"/>
+    <row r="59" spans="1:10" ht="18" thickBot="1">
+      <c r="A59" s="64"/>
       <c r="B59" s="46"/>
       <c r="C59" s="10" t="s">
         <v>240</v>
@@ -8537,13 +8532,13 @@
       <c r="F59" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="G59" s="47" t="s">
+      <c r="G59" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="H59" s="47" t="s">
+      <c r="H59" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="I59" s="48">
+      <c r="I59" s="29">
         <v>43326</v>
       </c>
       <c r="J59" s="11"/>
@@ -8570,20 +8565,20 @@
       <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="16.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="7.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8615,11 +8610,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="31">
+    <row r="2" spans="1:10" ht="17.25">
+      <c r="A2" s="52">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="52" t="s">
         <v>193</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -8635,9 +8630,9 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+    <row r="3" spans="1:10" ht="17.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="4" t="s">
         <v>101</v>
       </c>
@@ -8651,9 +8646,9 @@
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
+    <row r="4" spans="1:10" ht="17.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="4" t="s">
         <v>195</v>
       </c>
@@ -8667,9 +8662,9 @@
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+    <row r="5" spans="1:10" ht="17.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="4" t="s">
         <v>196</v>
       </c>
@@ -8683,9 +8678,9 @@
       <c r="I5" s="4"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+    <row r="6" spans="1:10" ht="17.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="4" t="s">
         <v>197</v>
       </c>
@@ -8699,9 +8694,9 @@
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+    <row r="7" spans="1:10" ht="17.25">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="4" t="s">
         <v>198</v>
       </c>
@@ -8715,9 +8710,9 @@
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
+    <row r="8" spans="1:10" ht="17.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="4" t="s">
         <v>199</v>
       </c>
@@ -8731,9 +8726,9 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
+    <row r="9" spans="1:10" ht="17.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="4" t="s">
         <v>200</v>
       </c>
@@ -8747,9 +8742,9 @@
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
+    <row r="10" spans="1:10" ht="17.25">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="4" t="s">
         <v>201</v>
       </c>
@@ -8763,9 +8758,9 @@
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
+    <row r="11" spans="1:10" ht="17.25">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="4" t="s">
         <v>202</v>
       </c>
@@ -8779,9 +8774,9 @@
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
+    <row r="12" spans="1:10" ht="17.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="4" t="s">
         <v>114</v>
       </c>
@@ -8795,9 +8790,9 @@
       <c r="I12" s="7"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
+    <row r="13" spans="1:10" ht="17.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="4" t="s">
         <v>203</v>
       </c>
@@ -8811,9 +8806,9 @@
       <c r="I13" s="7"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
+    <row r="14" spans="1:10" ht="17.25">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="4" t="s">
         <v>204</v>
       </c>
@@ -8827,9 +8822,9 @@
       <c r="I14" s="7"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
+    <row r="15" spans="1:10" ht="18" thickBot="1">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="10" t="s">
         <v>205</v>
       </c>
@@ -8843,7 +8838,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="18">
       <c r="A16" s="1" t="s">
         <v>232</v>
       </c>
@@ -8875,11 +8870,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="17.25">
       <c r="A17" s="42">
         <v>2</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="45" t="s">
         <v>316</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -8905,9 +8900,9 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="17.25">
       <c r="A18" s="42"/>
-      <c r="B18" s="35"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="17" t="s">
         <v>257</v>
       </c>
@@ -8931,9 +8926,9 @@
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="17.25">
       <c r="A19" s="42"/>
-      <c r="B19" s="35"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="17" t="s">
         <v>323</v>
       </c>
@@ -8957,9 +8952,9 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="17.25">
       <c r="A20" s="42"/>
-      <c r="B20" s="35"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="17" t="s">
         <v>323</v>
       </c>
@@ -8983,9 +8978,9 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="17.25">
       <c r="A21" s="42"/>
-      <c r="B21" s="35"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="17" t="s">
         <v>328</v>
       </c>
@@ -9009,9 +9004,9 @@
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="17.25">
       <c r="A22" s="42"/>
-      <c r="B22" s="35"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="17" t="s">
         <v>331</v>
       </c>
@@ -9035,9 +9030,9 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="17.25">
       <c r="A23" s="42"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="17" t="s">
         <v>333</v>
       </c>
@@ -9061,9 +9056,9 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="17.25">
       <c r="A24" s="42"/>
-      <c r="B24" s="35"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="17" t="s">
         <v>336</v>
       </c>
@@ -9087,9 +9082,9 @@
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="17.25">
       <c r="A25" s="42"/>
-      <c r="B25" s="35"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="17" t="s">
         <v>338</v>
       </c>
@@ -9113,9 +9108,9 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="17.25">
       <c r="A26" s="42"/>
-      <c r="B26" s="35"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="17" t="s">
         <v>341</v>
       </c>
@@ -9139,9 +9134,9 @@
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="17.25">
       <c r="A27" s="42"/>
-      <c r="B27" s="35"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="17" t="s">
         <v>271</v>
       </c>
@@ -9165,9 +9160,9 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="17.25">
       <c r="A28" s="42"/>
-      <c r="B28" s="35"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="17" t="s">
         <v>344</v>
       </c>
@@ -9191,9 +9186,9 @@
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="17.25">
       <c r="A29" s="42"/>
-      <c r="B29" s="35"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="17" t="s">
         <v>347</v>
       </c>
@@ -9217,9 +9212,9 @@
       </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="17.25">
       <c r="A30" s="42"/>
-      <c r="B30" s="35"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="17" t="s">
         <v>299</v>
       </c>
@@ -9243,9 +9238,9 @@
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="17.25">
       <c r="A31" s="42"/>
-      <c r="B31" s="35"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="17" t="s">
         <v>301</v>
       </c>
@@ -9269,9 +9264,9 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="17.25">
       <c r="A32" s="42"/>
-      <c r="B32" s="35"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="17" t="s">
         <v>304</v>
       </c>
@@ -9295,9 +9290,9 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="17.25">
       <c r="A33" s="42"/>
-      <c r="B33" s="35"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="17" t="s">
         <v>306</v>
       </c>
@@ -9321,9 +9316,9 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="17.25">
       <c r="A34" s="42"/>
-      <c r="B34" s="35"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="17" t="s">
         <v>308</v>
       </c>
@@ -9345,11 +9340,11 @@
       <c r="I34" s="14">
         <v>43326</v>
       </c>
-      <c r="J34" s="43"/>
-    </row>
-    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:10" ht="17.25">
       <c r="A35" s="42"/>
-      <c r="B35" s="35"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="17" t="s">
         <v>310</v>
       </c>
@@ -9371,11 +9366,11 @@
       <c r="I35" s="14">
         <v>43326</v>
       </c>
-      <c r="J35" s="44"/>
-    </row>
-    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="J35" s="27"/>
+    </row>
+    <row r="36" spans="1:10" ht="17.25">
       <c r="A36" s="42"/>
-      <c r="B36" s="35"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="17" t="s">
         <v>312</v>
       </c>
@@ -9397,11 +9392,11 @@
       <c r="I36" s="14">
         <v>43326</v>
       </c>
-      <c r="J36" s="44"/>
-    </row>
-    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="J36" s="27"/>
+    </row>
+    <row r="37" spans="1:10" ht="17.25">
       <c r="A37" s="42"/>
-      <c r="B37" s="35"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="17" t="s">
         <v>313</v>
       </c>
@@ -9423,10 +9418,10 @@
       <c r="I37" s="14">
         <v>43326</v>
       </c>
-      <c r="J37" s="44"/>
-    </row>
-    <row r="38" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="J37" s="27"/>
+    </row>
+    <row r="38" spans="1:10" ht="18" thickBot="1">
+      <c r="A38" s="43"/>
       <c r="B38" s="46"/>
       <c r="C38" s="10" t="s">
         <v>240</v>
@@ -9440,16 +9435,16 @@
       <c r="F38" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="G38" s="47" t="s">
+      <c r="G38" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="H38" s="47" t="s">
+      <c r="H38" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="I38" s="48">
+      <c r="I38" s="29">
         <v>43326</v>
       </c>
-      <c r="J38" s="49"/>
+      <c r="J38" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
